--- a/CPET-2-proc/16.xlsx
+++ b/CPET-2-proc/16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyao/Desktop/CPET-2-proc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3431FC3C-AFD5-2940-984F-B96F1CDAD2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D005298A-1357-594A-977F-36F4184012F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{E13498FF-1159-4D4C-A30C-2F4DE18A1D57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="552">
   <si>
     <t>ID</t>
   </si>
@@ -1698,6 +1698,10 @@
   </si>
   <si>
     <t>Height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO2/kg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1818,7 +1822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,6 +1888,12 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2199,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48DC75E-6969-1243-AB2F-DA875984DCA0}">
-  <dimension ref="A1:R538"/>
+  <dimension ref="A1:S538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2212,7 +2222,7 @@
     <col min="14" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" s="22" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2267,8 +2277,11 @@
       <c r="R1" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="17">
         <v>16</v>
       </c>
@@ -2323,8 +2336,11 @@
       <c r="R2" s="8">
         <v>0.63319908327035501</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="23">
+        <v>7.60142957107269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="17">
         <v>16</v>
       </c>
@@ -2379,8 +2395,11 @@
       <c r="R3" s="8">
         <v>0.74341051088066801</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="23">
+        <v>8.9244959289395904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="17">
         <v>16</v>
       </c>
@@ -2435,8 +2454,11 @@
       <c r="R4" s="8">
         <v>0.89048644866563897</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="23">
+        <v>10.6901134293594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="17">
         <v>16</v>
       </c>
@@ -2491,8 +2513,11 @@
       <c r="R5" s="8">
         <v>0.92531012551806802</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="23">
+        <v>11.108164772125701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="17">
         <v>16</v>
       </c>
@@ -2547,8 +2572,11 @@
       <c r="R6" s="8">
         <v>0.87692928188820696</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="18" customFormat="1">
+      <c r="S6" s="23">
+        <v>10.527362327589501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="18" customFormat="1">
       <c r="A7" s="18">
         <v>16</v>
       </c>
@@ -2603,8 +2631,11 @@
       <c r="R7" s="15">
         <v>0.93454926894012802</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="23">
+        <v>11.2190788588251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="17">
         <v>16</v>
       </c>
@@ -2659,8 +2690,11 @@
       <c r="R8" s="8">
         <v>1.0460572308943199</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="23">
+        <v>12.5577098546737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="17">
         <v>16</v>
       </c>
@@ -2715,8 +2749,11 @@
       <c r="R9" s="8">
         <v>1.04589449056925</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="23">
+        <v>12.5557561893068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -2771,8 +2808,11 @@
       <c r="R10" s="8">
         <v>0.891368157947387</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="23">
+        <v>10.7006981746385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="17">
         <v>16</v>
       </c>
@@ -2827,8 +2867,11 @@
       <c r="R11" s="8">
         <v>0.909929927893664</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="23">
+        <v>10.9235285461424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="17">
         <v>16</v>
       </c>
@@ -2883,8 +2926,11 @@
       <c r="R12" s="8">
         <v>1.03726308091119</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="23">
+        <v>12.452137826064799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="17">
         <v>16</v>
       </c>
@@ -2939,8 +2985,11 @@
       <c r="R13" s="8">
         <v>1.0513014398451199</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="23">
+        <v>12.620665544359101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="17">
         <v>16</v>
       </c>
@@ -2995,8 +3044,11 @@
       <c r="R14" s="8">
         <v>1.04079653112093</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="23">
+        <v>12.4945561959295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="17">
         <v>16</v>
       </c>
@@ -3051,8 +3103,11 @@
       <c r="R15" s="8">
         <v>1.10918147181635</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="23">
+        <v>13.315503863341601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="17">
         <v>16</v>
       </c>
@@ -3107,8 +3162,11 @@
       <c r="R16" s="8">
         <v>0.98828688159157096</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="23">
+        <v>11.864188254400601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -3163,8 +3221,11 @@
       <c r="R17" s="8">
         <v>1.0479741950756201</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="23">
+        <v>12.5807226299594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -3219,8 +3280,11 @@
       <c r="R18" s="8">
         <v>0.82592729724788005</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="23">
+        <v>9.9150936044163291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -3275,8 +3339,11 @@
       <c r="R19" s="8">
         <v>1.0120255749400999</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="23">
+        <v>12.149166565907599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="17">
         <v>16</v>
       </c>
@@ -3331,8 +3398,11 @@
       <c r="R20" s="8">
         <v>1.1030629037349799</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="23">
+        <v>13.242051665485899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -3387,8 +3457,11 @@
       <c r="R21" s="8">
         <v>0.93436088321259203</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="23">
+        <v>11.2168173254813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="17">
         <v>16</v>
       </c>
@@ -3443,8 +3516,11 @@
       <c r="R22" s="8">
         <v>0.86413396608890003</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="23">
+        <v>10.3737570959052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="17">
         <v>16</v>
       </c>
@@ -3499,8 +3575,11 @@
       <c r="R23" s="8">
         <v>0.79890722748482701</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="23">
+        <v>9.5907230190255301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="17">
         <v>16</v>
       </c>
@@ -3555,8 +3634,11 @@
       <c r="R24" s="8">
         <v>1.0699102530078399</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="23">
+        <v>12.844060660358201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="17">
         <v>16</v>
       </c>
@@ -3611,8 +3693,11 @@
       <c r="R25" s="8">
         <v>1.1099614612920099</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="23">
+        <v>13.324867482497201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="17">
         <v>16</v>
       </c>
@@ -3667,8 +3752,11 @@
       <c r="R26" s="8">
         <v>1.17474321043602</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="23">
+        <v>14.1025595490519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="17">
         <v>16</v>
       </c>
@@ -3723,8 +3811,11 @@
       <c r="R27" s="8">
         <v>0.86912420911939203</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="23">
+        <v>10.4336639750227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="17">
         <v>16</v>
       </c>
@@ -3779,8 +3870,11 @@
       <c r="R28" s="8">
         <v>1.1670775536818101</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="23">
+        <v>14.010534858125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="17">
         <v>16</v>
       </c>
@@ -3835,8 +3929,11 @@
       <c r="R29" s="8">
         <v>1.25972433086872</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="23">
+        <v>15.1227410668514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="17">
         <v>16</v>
       </c>
@@ -3891,8 +3988,11 @@
       <c r="R30" s="8">
         <v>1.22362241948618</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="23">
+        <v>14.689344771742901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="17">
         <v>16</v>
       </c>
@@ -3947,8 +4047,11 @@
       <c r="R31" s="8">
         <v>1.0763260253658899</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="23">
+        <v>12.921080736685299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="17">
         <v>16</v>
       </c>
@@ -4003,8 +4106,11 @@
       <c r="R32" s="8">
         <v>0.95424050628650503</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="23">
+        <v>11.455468262743199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="17">
         <v>16</v>
       </c>
@@ -4059,8 +4165,11 @@
       <c r="R33" s="8">
         <v>0.91339076920505602</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="23">
+        <v>10.9650752605649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="17">
         <v>16</v>
       </c>
@@ -4115,8 +4224,11 @@
       <c r="R34" s="8">
         <v>0.94728011445625704</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="18" customFormat="1">
+      <c r="S34" s="23">
+        <v>11.371910137530101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="18" customFormat="1">
       <c r="A35" s="18">
         <v>16</v>
       </c>
@@ -4171,8 +4283,11 @@
       <c r="R35" s="15">
         <v>1.1013681761585401</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="23">
+        <v>13.2217067966212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="17">
         <v>16</v>
       </c>
@@ -4227,8 +4342,11 @@
       <c r="R36" s="8">
         <v>1.32611213185272</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="23">
+        <v>15.919713467619699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="17">
         <v>16</v>
       </c>
@@ -4283,8 +4401,11 @@
       <c r="R37" s="8">
         <v>1.16070532133032</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="23">
+        <v>13.934037470952299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="17">
         <v>16</v>
       </c>
@@ -4339,8 +4460,11 @@
       <c r="R38" s="8">
         <v>1.3120591972979001</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="23">
+        <v>15.7510107718836</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="17">
         <v>16</v>
       </c>
@@ -4395,8 +4519,11 @@
       <c r="R39" s="8">
         <v>1.2473385562108701</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="23">
+        <v>14.974052295448599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="17">
         <v>16</v>
       </c>
@@ -4451,8 +4578,11 @@
       <c r="R40" s="8">
         <v>1.27427508213385</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="23">
+        <v>15.2974199535876</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="17">
         <v>16</v>
       </c>
@@ -4507,8 +4637,11 @@
       <c r="R41" s="8">
         <v>1.1381272822929001</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="23">
+        <v>13.6629925845487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="17">
         <v>16</v>
       </c>
@@ -4563,8 +4696,11 @@
       <c r="R42" s="8">
         <v>1.10446720469963</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="23">
+        <v>13.2589100204037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="17">
         <v>16</v>
       </c>
@@ -4619,8 +4755,11 @@
       <c r="R43" s="8">
         <v>1.0932202989514499</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="23">
+        <v>13.1238931446753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="17">
         <v>16</v>
       </c>
@@ -4675,8 +4814,11 @@
       <c r="R44" s="8">
         <v>1.1582126739982399</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="23">
+        <v>13.904113733472199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="17">
         <v>16</v>
       </c>
@@ -4731,8 +4873,11 @@
       <c r="R45" s="8">
         <v>1.4259500679008801</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="23">
+        <v>17.118248114056101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="17">
         <v>16</v>
       </c>
@@ -4787,8 +4932,11 @@
       <c r="R46" s="8">
         <v>1.3190160958835699</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="23">
+        <v>15.834526961387301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="17">
         <v>16</v>
       </c>
@@ -4843,8 +4991,11 @@
       <c r="R47" s="8">
         <v>1.2088308544505699</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="23">
+        <v>14.511774963392099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="17">
         <v>16</v>
       </c>
@@ -4899,8 +5050,11 @@
       <c r="R48" s="8">
         <v>1.01389568423464</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="23">
+        <v>12.1716168575587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="17">
         <v>16</v>
       </c>
@@ -4955,8 +5109,11 @@
       <c r="R49" s="8">
         <v>1.2546938172790301</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="23">
+        <v>15.0623507476474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="17">
         <v>16</v>
       </c>
@@ -5011,8 +5168,11 @@
       <c r="R50" s="8">
         <v>1.2779695823766399</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="23">
+        <v>15.341771697198499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="17">
         <v>16</v>
       </c>
@@ -5067,8 +5227,11 @@
       <c r="R51" s="8">
         <v>1.3080888816998899</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="23">
+        <v>15.7033479195665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="17">
         <v>16</v>
       </c>
@@ -5123,8 +5286,11 @@
       <c r="R52" s="8">
         <v>1.0923627695211</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="23">
+        <v>13.1135986737227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="17">
         <v>16</v>
       </c>
@@ -5179,8 +5345,11 @@
       <c r="R53" s="8">
         <v>1.1847468626283499</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="23">
+        <v>14.222651412105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="17">
         <v>16</v>
       </c>
@@ -5235,8 +5404,11 @@
       <c r="R54" s="8">
         <v>1.2781350334432799</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="23">
+        <v>15.343757904481199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="17">
         <v>16</v>
       </c>
@@ -5291,8 +5463,11 @@
       <c r="R55" s="8">
         <v>1.30301126078024</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="23">
+        <v>15.6423920861974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="17">
         <v>16</v>
       </c>
@@ -5347,8 +5522,11 @@
       <c r="R56" s="8">
         <v>1.31761369240851</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="23">
+        <v>15.8176913854563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="17">
         <v>16</v>
       </c>
@@ -5403,8 +5581,11 @@
       <c r="R57" s="8">
         <v>1.3306291156341901</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="23">
+        <v>15.9739389631956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="17">
         <v>16</v>
       </c>
@@ -5459,8 +5640,11 @@
       <c r="R58" s="8">
         <v>1.2676029650281999</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="23">
+        <v>15.2173225093422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="17">
         <v>16</v>
       </c>
@@ -5515,8 +5699,11 @@
       <c r="R59" s="8">
         <v>1.21831412663711</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" s="18" customFormat="1">
+      <c r="S59" s="23">
+        <v>14.625619767552401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="18" customFormat="1">
       <c r="A60" s="18">
         <v>16</v>
       </c>
@@ -5571,8 +5758,11 @@
       <c r="R60" s="15">
         <v>1.19203252725175</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="23">
+        <v>14.310114372770199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="17">
         <v>16</v>
       </c>
@@ -5627,8 +5817,11 @@
       <c r="R61" s="8">
         <v>1.22817008971793</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="23">
+        <v>14.743938652076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="17">
         <v>16</v>
       </c>
@@ -5683,8 +5876,11 @@
       <c r="R62" s="8">
         <v>1.6189571470373401</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="23">
+        <v>19.435259868395399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="17">
         <v>16</v>
       </c>
@@ -5739,8 +5935,11 @@
       <c r="R63" s="8">
         <v>1.54116165933127</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="23">
+        <v>18.501340448154501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="17">
         <v>16</v>
       </c>
@@ -5795,8 +5994,11 @@
       <c r="R64" s="8">
         <v>1.39051011785824</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="23">
+        <v>16.692798533712399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="17">
         <v>16</v>
       </c>
@@ -5851,8 +6053,11 @@
       <c r="R65" s="8">
         <v>1.3391149136515399</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="23">
+        <v>16.075809287533499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="17">
         <v>16</v>
       </c>
@@ -5907,8 +6112,11 @@
       <c r="R66" s="8">
         <v>1.4695899989402399</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="23">
+        <v>17.642136842019699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="17">
         <v>16</v>
       </c>
@@ -5963,8 +6171,11 @@
       <c r="R67" s="8">
         <v>1.55683375014033</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="23">
+        <v>18.6894807940016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="17">
         <v>16</v>
       </c>
@@ -6019,8 +6230,11 @@
       <c r="R68" s="8">
         <v>1.54752042875991</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="23">
+        <v>18.577676215605202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="17">
         <v>16</v>
       </c>
@@ -6075,8 +6289,11 @@
       <c r="R69" s="8">
         <v>1.5836362869826599</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" s="23">
+        <v>19.011239939767801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="17">
         <v>16</v>
       </c>
@@ -6131,8 +6348,11 @@
       <c r="R70" s="8">
         <v>1.4023580268340201</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" s="23">
+        <v>16.835030334141901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="17">
         <v>16</v>
       </c>
@@ -6187,8 +6407,11 @@
       <c r="R71" s="8">
         <v>1.38742171652469</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" s="23">
+        <v>16.655722887451301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="17">
         <v>16</v>
       </c>
@@ -6243,8 +6466,11 @@
       <c r="R72" s="8">
         <v>1.31070832487725</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" s="23">
+        <v>15.734793816053401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="17">
         <v>16</v>
       </c>
@@ -6299,8 +6525,11 @@
       <c r="R73" s="8">
         <v>1.49892983007921</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" s="23">
+        <v>17.9943557032318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="17">
         <v>16</v>
       </c>
@@ -6355,8 +6584,11 @@
       <c r="R74" s="8">
         <v>1.5705359735842099</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="23">
+        <v>18.853973272319401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="17">
         <v>16</v>
       </c>
@@ -6411,8 +6643,11 @@
       <c r="R75" s="8">
         <v>1.61281395730134</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="23">
+        <v>19.361512092453101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="17">
         <v>16</v>
       </c>
@@ -6467,8 +6702,11 @@
       <c r="R76" s="8">
         <v>1.5026839083824901</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="23">
+        <v>18.0394226696578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="17">
         <v>16</v>
       </c>
@@ -6523,8 +6761,11 @@
       <c r="R77" s="8">
         <v>1.3419780984338501</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="23">
+        <v>16.110181253707701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="17">
         <v>16</v>
       </c>
@@ -6579,8 +6820,11 @@
       <c r="R78" s="8">
         <v>1.1152235927154499</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="23">
+        <v>13.388038327916499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="17">
         <v>16</v>
       </c>
@@ -6635,8 +6879,11 @@
       <c r="R79" s="8">
         <v>1.2644700940560301</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="23">
+        <v>15.179713013877899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="17">
         <v>16</v>
       </c>
@@ -6691,8 +6938,11 @@
       <c r="R80" s="8">
         <v>1.47089223790451</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="23">
+        <v>17.6577699628393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="17">
         <v>16</v>
       </c>
@@ -6747,8 +6997,11 @@
       <c r="R81" s="8">
         <v>1.70809972057185</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="23">
+        <v>20.505398806384701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="17">
         <v>16</v>
       </c>
@@ -6803,8 +7056,11 @@
       <c r="R82" s="8">
         <v>1.5625082117367</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="23">
+        <v>18.757601581473001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="17">
         <v>16</v>
       </c>
@@ -6859,8 +7115,11 @@
       <c r="R83" s="8">
         <v>1.43788637791936</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" s="23">
+        <v>17.261541151492899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="17">
         <v>16</v>
       </c>
@@ -6915,8 +7174,11 @@
       <c r="R84" s="8">
         <v>1.6169687493266101</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" s="18" customFormat="1">
+      <c r="S84" s="23">
+        <v>19.411389547738398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" s="18" customFormat="1">
       <c r="A85" s="18">
         <v>16</v>
       </c>
@@ -6971,8 +7233,11 @@
       <c r="R85" s="15">
         <v>1.71412756131476</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" s="23">
+        <v>20.5777618405133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="17">
         <v>16</v>
       </c>
@@ -7027,8 +7292,11 @@
       <c r="R86" s="8">
         <v>1.74809350841721</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="23">
+        <v>20.985516307529501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="17">
         <v>16</v>
       </c>
@@ -7083,8 +7351,11 @@
       <c r="R87" s="8">
         <v>1.6661218127465101</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" s="23">
+        <v>20.001462337893301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="17">
         <v>16</v>
       </c>
@@ -7139,8 +7410,11 @@
       <c r="R88" s="8">
         <v>1.63641525716985</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" s="23">
+        <v>19.644841022447199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="17">
         <v>16</v>
       </c>
@@ -7195,8 +7469,11 @@
       <c r="R89" s="8">
         <v>1.63605216851479</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" s="23">
+        <v>19.6404822150635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="17">
         <v>16</v>
       </c>
@@ -7251,8 +7528,11 @@
       <c r="R90" s="8">
         <v>1.69767686364213</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="23">
+        <v>20.380274473495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="17">
         <v>16</v>
       </c>
@@ -7307,8 +7587,11 @@
       <c r="R91" s="8">
         <v>1.69048532767617</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" s="23">
+        <v>20.293941508717499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="17">
         <v>16</v>
       </c>
@@ -7363,8 +7646,11 @@
       <c r="R92" s="8">
         <v>1.6013077606080199</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" s="23">
+        <v>19.2233824802884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="17">
         <v>16</v>
       </c>
@@ -7419,8 +7705,11 @@
       <c r="R93" s="8">
         <v>1.5488203586979901</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" s="23">
+        <v>18.593281617022701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="17">
         <v>16</v>
       </c>
@@ -7475,8 +7764,11 @@
       <c r="R94" s="8">
         <v>1.46605604281758</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" s="23">
+        <v>17.5997123987705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="17">
         <v>16</v>
       </c>
@@ -7531,8 +7823,11 @@
       <c r="R95" s="8">
         <v>1.4792738907887399</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" s="23">
+        <v>17.7583900454831</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="17">
         <v>16</v>
       </c>
@@ -7587,8 +7882,11 @@
       <c r="R96" s="8">
         <v>1.62425588191298</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" s="23">
+        <v>19.498870131008101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="17">
         <v>16</v>
       </c>
@@ -7643,8 +7941,11 @@
       <c r="R97" s="8">
         <v>1.6383573213907101</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" s="23">
+        <v>19.668155118735999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="17">
         <v>16</v>
       </c>
@@ -7699,8 +8000,11 @@
       <c r="R98" s="8">
         <v>1.46567921638237</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" s="23">
+        <v>17.595188672057301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="17">
         <v>16</v>
       </c>
@@ -7755,8 +8059,11 @@
       <c r="R99" s="8">
         <v>1.5999022447853199</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" s="23">
+        <v>19.206509541240301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="17">
         <v>16</v>
       </c>
@@ -7811,8 +8118,11 @@
       <c r="R100" s="8">
         <v>1.72091881655089</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" s="23">
+        <v>20.6592895144164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="17">
         <v>16</v>
       </c>
@@ -7867,8 +8177,11 @@
       <c r="R101" s="8">
         <v>1.64446174064994</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" s="23">
+        <v>19.7414374627844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="17">
         <v>16</v>
       </c>
@@ -7923,8 +8236,11 @@
       <c r="R102" s="8">
         <v>1.59375006990088</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" s="23">
+        <v>19.132653900370801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="17">
         <v>16</v>
       </c>
@@ -7979,8 +8295,11 @@
       <c r="R103" s="8">
         <v>1.552917694087</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="23">
+        <v>18.642469316770701</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="17">
         <v>16</v>
       </c>
@@ -8035,8 +8354,11 @@
       <c r="R104" s="8">
         <v>1.57793081098098</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="23">
+        <v>18.942746830503999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="17">
         <v>16</v>
       </c>
@@ -8091,8 +8413,11 @@
       <c r="R105" s="8">
         <v>1.80083406101192</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="23">
+        <v>21.618656194620801</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="17">
         <v>16</v>
       </c>
@@ -8147,8 +8472,11 @@
       <c r="R106" s="8">
         <v>1.48796969636248</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="23">
+        <v>17.8627814689373</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="17">
         <v>16</v>
       </c>
@@ -8203,8 +8531,11 @@
       <c r="R107" s="8">
         <v>1.6276381277710801</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="23">
+        <v>19.539473322582001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="17">
         <v>16</v>
       </c>
@@ -8259,8 +8590,11 @@
       <c r="R108" s="8">
         <v>1.61400073189427</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="23">
+        <v>19.3757590863658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="17">
         <v>16</v>
       </c>
@@ -8315,8 +8649,11 @@
       <c r="R109" s="8">
         <v>2.0300354571755999</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="23">
+        <v>24.370173555529401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="17">
         <v>16</v>
       </c>
@@ -8371,8 +8708,11 @@
       <c r="R110" s="8">
         <v>1.9081263378614799</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" s="18" customFormat="1">
+      <c r="S110" s="23">
+        <v>22.906678725828101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" s="18" customFormat="1">
       <c r="A111" s="18">
         <v>16</v>
       </c>
@@ -8427,8 +8767,11 @@
       <c r="R111" s="15">
         <v>1.7955699565482399</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="23">
+        <v>21.555461663244198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="17">
         <v>16</v>
       </c>
@@ -8483,8 +8826,11 @@
       <c r="R112" s="8">
         <v>1.96520401802148</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="23">
+        <v>23.5918849702458</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="17">
         <v>16</v>
       </c>
@@ -8539,8 +8885,11 @@
       <c r="R113" s="8">
         <v>1.7816510558484999</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="23">
+        <v>21.388368017388999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="17">
         <v>16</v>
       </c>
@@ -8595,8 +8944,11 @@
       <c r="R114" s="8">
         <v>1.7406195276467999</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="23">
+        <v>20.8957926488211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="17">
         <v>16</v>
       </c>
@@ -8651,8 +9003,11 @@
       <c r="R115" s="8">
         <v>1.6333683410472899</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="23">
+        <v>19.608263397926699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="17">
         <v>16</v>
       </c>
@@ -8707,8 +9062,11 @@
       <c r="R116" s="8">
         <v>1.6736025485968</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="23">
+        <v>20.0912670899977</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="17">
         <v>16</v>
       </c>
@@ -8763,8 +9121,11 @@
       <c r="R117" s="8">
         <v>1.8733231262583101</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="23">
+        <v>22.488873064325499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="17">
         <v>16</v>
       </c>
@@ -8819,8 +9180,11 @@
       <c r="R118" s="8">
         <v>1.8025877544598601</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="23">
+        <v>21.639708937093101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="17">
         <v>16</v>
       </c>
@@ -8875,8 +9239,11 @@
       <c r="R119" s="8">
         <v>1.85896373305075</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="23">
+        <v>22.316491393166299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="17">
         <v>16</v>
       </c>
@@ -8931,8 +9298,11 @@
       <c r="R120" s="8">
         <v>1.8219906557005301</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="23">
+        <v>21.872636923175602</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="17">
         <v>16</v>
       </c>
@@ -8987,8 +9357,11 @@
       <c r="R121" s="8">
         <v>1.83107088253749</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="23">
+        <v>21.981643247748998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="17">
         <v>16</v>
       </c>
@@ -9043,8 +9416,11 @@
       <c r="R122" s="8">
         <v>1.69978213336233</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="23">
+        <v>20.4055478194757</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="17">
         <v>16</v>
       </c>
@@ -9099,8 +9475,11 @@
       <c r="R123" s="8">
         <v>1.77379874582413</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="23">
+        <v>21.294102590925998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="17">
         <v>16</v>
       </c>
@@ -9155,8 +9534,11 @@
       <c r="R124" s="8">
         <v>1.85572832126356</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="23">
+        <v>22.277650915528898</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="17">
         <v>16</v>
       </c>
@@ -9211,8 +9593,11 @@
       <c r="R125" s="8">
         <v>1.7788814942220399</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="23">
+        <v>21.3551199786559</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="17">
         <v>16</v>
       </c>
@@ -9267,8 +9652,11 @@
       <c r="R126" s="8">
         <v>1.8279398901836701</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" s="23">
+        <v>21.944056304725901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="17">
         <v>16</v>
       </c>
@@ -9323,8 +9711,11 @@
       <c r="R127" s="8">
         <v>1.89942512874992</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="23">
+        <v>22.802222433972599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="17">
         <v>16</v>
       </c>
@@ -9379,8 +9770,11 @@
       <c r="R128" s="8">
         <v>1.9068897241396801</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" s="23">
+        <v>22.891833423045298</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="17">
         <v>16</v>
       </c>
@@ -9435,8 +9829,11 @@
       <c r="R129" s="8">
         <v>1.72033178233885</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" s="23">
+        <v>20.652242284980101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="17">
         <v>16</v>
       </c>
@@ -9491,8 +9888,11 @@
       <c r="R130" s="8">
         <v>1.5628549832396199</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" s="23">
+        <v>18.761764504677299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="17">
         <v>16</v>
       </c>
@@ -9547,8 +9947,11 @@
       <c r="R131" s="8">
         <v>1.8848638089002701</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" s="23">
+        <v>22.627416673472599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="17">
         <v>16</v>
       </c>
@@ -9603,8 +10006,11 @@
       <c r="R132" s="8">
         <v>1.8732926667595999</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" s="23">
+        <v>22.488507404076799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="17">
         <v>16</v>
       </c>
@@ -9659,8 +10065,11 @@
       <c r="R133" s="8">
         <v>1.9164068665787599</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" s="23">
+        <v>23.006084832878201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="17">
         <v>16</v>
       </c>
@@ -9715,8 +10124,11 @@
       <c r="R134" s="8">
         <v>1.94038302842486</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" s="23">
+        <v>23.293913906660901</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="17">
         <v>16</v>
       </c>
@@ -9771,8 +10183,11 @@
       <c r="R135" s="8">
         <v>2.2483647026079598</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" s="23">
+        <v>26.991172900455702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="17">
         <v>16</v>
       </c>
@@ -9827,8 +10242,11 @@
       <c r="R136" s="8">
         <v>2.28783350270181</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" s="23">
+        <v>27.464988027632799</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="17">
         <v>16</v>
       </c>
@@ -9883,8 +10301,11 @@
       <c r="R137" s="8">
         <v>1.99541220009235</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" s="23">
+        <v>23.9545282123932</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="17">
         <v>16</v>
       </c>
@@ -9939,8 +10360,11 @@
       <c r="R138" s="8">
         <v>1.6382188633641099</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" s="18" customFormat="1">
+      <c r="S138" s="23">
+        <v>19.6664929575523</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" s="18" customFormat="1">
       <c r="A139" s="18">
         <v>16</v>
       </c>
@@ -9995,8 +10419,11 @@
       <c r="R139" s="15">
         <v>1.5986229557281499</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" s="23">
+        <v>19.191151929509601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="17">
         <v>16</v>
       </c>
@@ -10051,8 +10478,11 @@
       <c r="R140" s="8">
         <v>1.80554053835672</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" s="23">
+        <v>21.6751565228898</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="17">
         <v>16</v>
       </c>
@@ -10107,8 +10537,11 @@
       <c r="R141" s="8">
         <v>1.85248779633435</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" s="23">
+        <v>22.238749055634401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="17">
         <v>16</v>
       </c>
@@ -10163,8 +10596,11 @@
       <c r="R142" s="8">
         <v>2.16372746548568</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" s="23">
+        <v>25.975119633681601</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="17">
         <v>16</v>
       </c>
@@ -10219,8 +10655,11 @@
       <c r="R143" s="8">
         <v>2.1171048388139702</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" s="23">
+        <v>25.415424235461799</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="17">
         <v>16</v>
       </c>
@@ -10275,8 +10714,11 @@
       <c r="R144" s="8">
         <v>2.11998557499868</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" s="23">
+        <v>25.450006902745301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="17">
         <v>16</v>
       </c>
@@ -10331,8 +10773,11 @@
       <c r="R145" s="8">
         <v>2.1379684344187102</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" s="23">
+        <v>25.665887568051701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="17">
         <v>16</v>
       </c>
@@ -10387,8 +10832,11 @@
       <c r="R146" s="8">
         <v>2.11111080297266</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" s="23">
+        <v>25.343467022480901</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="17">
         <v>16</v>
       </c>
@@ -10443,8 +10891,11 @@
       <c r="R147" s="8">
         <v>2.14745841759221</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" s="23">
+        <v>25.7798129362811</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="17">
         <v>16</v>
       </c>
@@ -10499,8 +10950,11 @@
       <c r="R148" s="8">
         <v>2.1281613985949202</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" s="23">
+        <v>25.548156045557199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="17">
         <v>16</v>
       </c>
@@ -10555,8 +11009,11 @@
       <c r="R149" s="8">
         <v>1.99860425766373</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" s="23">
+        <v>23.992848231257302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="17">
         <v>16</v>
       </c>
@@ -10611,8 +11068,11 @@
       <c r="R150" s="8">
         <v>2.0890597985161699</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" s="23">
+        <v>25.0787490818268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="17">
         <v>16</v>
       </c>
@@ -10667,8 +11127,11 @@
       <c r="R151" s="8">
         <v>1.94895100721425</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" s="23">
+        <v>23.396770794889001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="17">
         <v>16</v>
       </c>
@@ -10723,8 +11186,11 @@
       <c r="R152" s="8">
         <v>1.72296781308077</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" s="23">
+        <v>20.683887311894001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="17">
         <v>16</v>
       </c>
@@ -10779,8 +11245,11 @@
       <c r="R153" s="8">
         <v>1.9031251604089501</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" s="23">
+        <v>22.846640581139901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="17">
         <v>16</v>
       </c>
@@ -10835,8 +11304,11 @@
       <c r="R154" s="8">
         <v>1.8095880018147501</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" s="23">
+        <v>21.723745519984998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="17">
         <v>16</v>
       </c>
@@ -10891,8 +11363,11 @@
       <c r="R155" s="8">
         <v>1.9133524038521801</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" s="23">
+        <v>22.969416612871299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="17">
         <v>16</v>
       </c>
@@ -10947,8 +11422,11 @@
       <c r="R156" s="8">
         <v>1.91471561539756</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" s="23">
+        <v>22.985781697449699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="17">
         <v>16</v>
       </c>
@@ -11003,8 +11481,11 @@
       <c r="R157" s="8">
         <v>2.40163200435854</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" s="23">
+        <v>28.831116498902102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="17">
         <v>16</v>
       </c>
@@ -11059,8 +11540,11 @@
       <c r="R158" s="8">
         <v>2.5291795645566402</v>
       </c>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" s="23">
+        <v>30.3622996945575</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="17">
         <v>16</v>
       </c>
@@ -11115,8 +11599,11 @@
       <c r="R159" s="8">
         <v>2.3041095441134698</v>
       </c>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" s="23">
+        <v>27.660378680834</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="17">
         <v>16</v>
       </c>
@@ -11171,8 +11658,11 @@
       <c r="R160" s="8">
         <v>2.21400734990796</v>
       </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" s="23">
+        <v>26.578719686770299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="17">
         <v>16</v>
       </c>
@@ -11227,8 +11717,11 @@
       <c r="R161" s="8">
         <v>2.02686540751262</v>
       </c>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" s="23">
+        <v>24.3321177372463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="17">
         <v>16</v>
       </c>
@@ -11283,8 +11776,11 @@
       <c r="R162" s="8">
         <v>2.0851181295228902</v>
       </c>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" s="23">
+        <v>25.031430126325201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="17">
         <v>16</v>
       </c>
@@ -11339,8 +11835,11 @@
       <c r="R163" s="8">
         <v>2.3528222247830199</v>
       </c>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" s="23">
+        <v>28.245164763301499</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="17">
         <v>16</v>
       </c>
@@ -11395,8 +11894,11 @@
       <c r="R164" s="8">
         <v>2.4039114899915002</v>
       </c>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" s="23">
+        <v>28.858481272407001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="17">
         <v>16</v>
       </c>
@@ -11451,8 +11953,11 @@
       <c r="R165" s="8">
         <v>2.1879080864297999</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" s="18" customFormat="1">
+      <c r="S165" s="23">
+        <v>26.2654031984369</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" s="18" customFormat="1">
       <c r="A166" s="18">
         <v>16</v>
       </c>
@@ -11507,8 +12012,11 @@
       <c r="R166" s="15">
         <v>2.08595749628951</v>
       </c>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" s="23">
+        <v>25.041506558097399</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="17">
         <v>16</v>
       </c>
@@ -11563,8 +12071,11 @@
       <c r="R167" s="8">
         <v>2.02631068568154</v>
       </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" s="23">
+        <v>24.325458411543099</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="17">
         <v>16</v>
       </c>
@@ -11619,8 +12130,11 @@
       <c r="R168" s="8">
         <v>2.2499445829772799</v>
       </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" s="23">
+        <v>27.010139051347799</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="17">
         <v>16</v>
       </c>
@@ -11675,8 +12189,11 @@
       <c r="R169" s="8">
         <v>2.3294459274129098</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" s="23">
+        <v>27.964536943732401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="17">
         <v>16</v>
       </c>
@@ -11731,8 +12248,11 @@
       <c r="R170" s="8">
         <v>2.3691720854204799</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" s="23">
+        <v>28.4414416016864</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="17">
         <v>16</v>
       </c>
@@ -11787,8 +12307,11 @@
       <c r="R171" s="8">
         <v>2.2603742540829601</v>
       </c>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" s="23">
+        <v>27.135345187070399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="17">
         <v>16</v>
       </c>
@@ -11843,8 +12366,11 @@
       <c r="R172" s="8">
         <v>2.0828447169614299</v>
       </c>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" s="23">
+        <v>25.004138258840801</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="17">
         <v>16</v>
       </c>
@@ -11899,8 +12425,11 @@
       <c r="R173" s="8">
         <v>2.0026697175948698</v>
       </c>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" s="23">
+        <v>24.041653272447402</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="17">
         <v>16</v>
       </c>
@@ -11955,8 +12484,11 @@
       <c r="R174" s="8">
         <v>1.9525631171855999</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" s="23">
+        <v>23.440133459611001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="17">
         <v>16</v>
       </c>
@@ -12011,8 +12543,11 @@
       <c r="R175" s="8">
         <v>2.03258246941851</v>
       </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" s="23">
+        <v>24.4007499329953</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="17">
         <v>16</v>
       </c>
@@ -12067,8 +12602,11 @@
       <c r="R176" s="8">
         <v>2.1675127392867202</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" s="23">
+        <v>26.020561095879</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="17">
         <v>16</v>
       </c>
@@ -12123,8 +12661,11 @@
       <c r="R177" s="8">
         <v>2.31304237254726</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" s="23">
+        <v>27.767615516773901</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="17">
         <v>16</v>
       </c>
@@ -12179,8 +12720,11 @@
       <c r="R178" s="8">
         <v>2.3471612540998499</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="23">
+        <v>28.1772059315708</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="17">
         <v>16</v>
       </c>
@@ -12235,8 +12779,11 @@
       <c r="R179" s="8">
         <v>2.2946980774845702</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" s="23">
+        <v>27.547395888170101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="17">
         <v>16</v>
       </c>
@@ -12291,8 +12838,11 @@
       <c r="R180" s="8">
         <v>2.2831878531601002</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="23">
+        <v>27.409217925091198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="17">
         <v>16</v>
       </c>
@@ -12347,8 +12897,11 @@
       <c r="R181" s="8">
         <v>2.2608076214868098</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="23">
+        <v>27.140547676912501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="17">
         <v>16</v>
       </c>
@@ -12403,8 +12956,11 @@
       <c r="R182" s="8">
         <v>2.1288406916278801</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="23">
+        <v>25.556310823864099</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="17">
         <v>16</v>
       </c>
@@ -12459,8 +13015,11 @@
       <c r="R183" s="8">
         <v>2.2077442132246601</v>
       </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="23">
+        <v>26.503531971484499</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="17">
         <v>16</v>
       </c>
@@ -12515,8 +13074,11 @@
       <c r="R184" s="8">
         <v>2.2724746385309902</v>
       </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="23">
+        <v>27.280607905534101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="17">
         <v>16</v>
       </c>
@@ -12571,8 +13133,11 @@
       <c r="R185" s="8">
         <v>2.6826609420911001</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="23">
+        <v>32.204813230385298</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="17">
         <v>16</v>
       </c>
@@ -12627,8 +13192,11 @@
       <c r="R186" s="8">
         <v>2.40083801182982</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" s="23">
+        <v>28.8215847758682</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="17">
         <v>16</v>
       </c>
@@ -12683,8 +13251,11 @@
       <c r="R187" s="8">
         <v>2.1929682771228101</v>
       </c>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" s="23">
+        <v>26.326149785387901</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="17">
         <v>16</v>
       </c>
@@ -12739,8 +13310,11 @@
       <c r="R188" s="8">
         <v>1.9737870534688899</v>
       </c>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" s="23">
+        <v>23.694922610671</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="17">
         <v>16</v>
       </c>
@@ -12795,8 +13369,11 @@
       <c r="R189" s="8">
         <v>2.02037694685737</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" s="23">
+        <v>24.254225052309401</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="17">
         <v>16</v>
       </c>
@@ -12851,8 +13428,11 @@
       <c r="R190" s="8">
         <v>2.1619785221323702</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" s="23">
+        <v>25.954123915154501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="17">
         <v>16</v>
       </c>
@@ -12907,8 +13487,11 @@
       <c r="R191" s="8">
         <v>2.3439535525572799</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" s="23">
+        <v>28.138698109931401</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="17">
         <v>16</v>
       </c>
@@ -12963,8 +13546,11 @@
       <c r="R192" s="8">
         <v>2.2405773305991801</v>
       </c>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" s="23">
+        <v>26.897687042007</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="17">
         <v>16</v>
       </c>
@@ -13019,8 +13605,11 @@
       <c r="R193" s="8">
         <v>2.2401731641646001</v>
       </c>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" s="23">
+        <v>26.8928351040168</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="17">
         <v>16</v>
       </c>
@@ -13075,8 +13664,11 @@
       <c r="R194" s="8">
         <v>2.27628190928296</v>
       </c>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" s="23">
+        <v>27.326313436770199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="17">
         <v>16</v>
       </c>
@@ -13131,8 +13723,11 @@
       <c r="R195" s="8">
         <v>2.6411944507106102</v>
       </c>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" s="23">
+        <v>31.707016215013301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="17">
         <v>16</v>
       </c>
@@ -13187,8 +13782,11 @@
       <c r="R196" s="8">
         <v>2.7370942254720898</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" s="18" customFormat="1">
+      <c r="S196" s="23">
+        <v>32.858274015271199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" s="18" customFormat="1">
       <c r="A197" s="18">
         <v>16</v>
       </c>
@@ -13243,8 +13841,11 @@
       <c r="R197" s="15">
         <v>2.68691925149614</v>
       </c>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" s="23">
+        <v>32.2559333913103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="17">
         <v>16</v>
       </c>
@@ -13299,8 +13900,11 @@
       <c r="R198" s="8">
         <v>2.5948462920186501</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" s="23">
+        <v>31.1506157505241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="17">
         <v>16</v>
       </c>
@@ -13355,8 +13959,11 @@
       <c r="R199" s="8">
         <v>2.3972410100717698</v>
       </c>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" s="23">
+        <v>28.778403482254099</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="17">
         <v>16</v>
       </c>
@@ -13411,8 +14018,11 @@
       <c r="R200" s="8">
         <v>2.40106702729602</v>
       </c>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="S200" s="23">
+        <v>28.8243340611767</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
       <c r="A201" s="17">
         <v>16</v>
       </c>
@@ -13467,8 +14077,11 @@
       <c r="R201" s="8">
         <v>2.3517982085949201</v>
       </c>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="S201" s="23">
+        <v>28.232871651799801</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
       <c r="A202" s="17">
         <v>16</v>
       </c>
@@ -13523,8 +14136,11 @@
       <c r="R202" s="8">
         <v>2.3644333019650801</v>
       </c>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="S202" s="23">
+        <v>28.384553444959</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
       <c r="A203" s="17">
         <v>16</v>
       </c>
@@ -13579,8 +14195,11 @@
       <c r="R203" s="8">
         <v>2.4063985206600198</v>
       </c>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="S203" s="23">
+        <v>28.888337582953401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
       <c r="A204" s="17">
         <v>16</v>
       </c>
@@ -13635,8 +14254,11 @@
       <c r="R204" s="8">
         <v>2.53575768619188</v>
       </c>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="S204" s="23">
+        <v>30.441268741799298</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
       <c r="A205" s="17">
         <v>16</v>
       </c>
@@ -13691,8 +14313,11 @@
       <c r="R205" s="8">
         <v>2.4603770570833099</v>
       </c>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="S205" s="23">
+        <v>29.536339220687999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
       <c r="A206" s="17">
         <v>16</v>
       </c>
@@ -13747,8 +14372,11 @@
       <c r="R206" s="8">
         <v>2.29512327346358</v>
       </c>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="S206" s="23">
+        <v>27.552500281675599</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
       <c r="A207" s="17">
         <v>16</v>
       </c>
@@ -13803,8 +14431,11 @@
       <c r="R207" s="8">
         <v>1.8666913841297299</v>
       </c>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="S207" s="23">
+        <v>22.4092603136822</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
       <c r="A208" s="17">
         <v>16</v>
       </c>
@@ -13859,8 +14490,11 @@
       <c r="R208" s="8">
         <v>1.9076035101912501</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208" s="23">
+        <v>22.900402283208301</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
       <c r="A209" s="17">
         <v>16</v>
       </c>
@@ -13915,8 +14549,11 @@
       <c r="R209" s="8">
         <v>1.9937629402560699</v>
       </c>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209" s="23">
+        <v>23.934729174742699</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
       <c r="A210" s="17">
         <v>16</v>
       </c>
@@ -13971,8 +14608,11 @@
       <c r="R210" s="8">
         <v>2.3844399726194299</v>
       </c>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210" s="23">
+        <v>28.624729563258398</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
       <c r="A211" s="17">
         <v>16</v>
       </c>
@@ -14027,8 +14667,11 @@
       <c r="R211" s="8">
         <v>2.3871084177533302</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211" s="23">
+        <v>28.656763718527401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
       <c r="A212" s="17">
         <v>16</v>
       </c>
@@ -14083,8 +14726,11 @@
       <c r="R212" s="8">
         <v>2.4355948514742098</v>
       </c>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212" s="23">
+        <v>29.238833751190899</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19">
       <c r="A213" s="17">
         <v>16</v>
       </c>
@@ -14139,8 +14785,11 @@
       <c r="R213" s="8">
         <v>2.5349585096039098</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213" s="23">
+        <v>30.431674785161</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
       <c r="A214" s="17">
         <v>16</v>
       </c>
@@ -14195,8 +14844,11 @@
       <c r="R214" s="8">
         <v>2.5736544344092001</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214" s="23">
+        <v>30.896211697589401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
       <c r="A215" s="17">
         <v>16</v>
       </c>
@@ -14251,8 +14903,11 @@
       <c r="R215" s="8">
         <v>2.4524843258472901</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="S215" s="23">
+        <v>29.441588545585699</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
       <c r="A216" s="17">
         <v>16</v>
       </c>
@@ -14307,8 +14962,11 @@
       <c r="R216" s="8">
         <v>2.5305578197130898</v>
       </c>
-    </row>
-    <row r="217" spans="1:18">
+      <c r="S216" s="23">
+        <v>30.378845374706898</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19">
       <c r="A217" s="17">
         <v>16</v>
       </c>
@@ -14363,8 +15021,11 @@
       <c r="R217" s="8">
         <v>2.54051857730924</v>
       </c>
-    </row>
-    <row r="218" spans="1:18">
+      <c r="S217" s="23">
+        <v>30.498422296629599</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19">
       <c r="A218" s="17">
         <v>16</v>
       </c>
@@ -14419,8 +15080,11 @@
       <c r="R218" s="8">
         <v>2.62012820838605</v>
       </c>
-    </row>
-    <row r="219" spans="1:18">
+      <c r="S218" s="23">
+        <v>31.454120148692098</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19">
       <c r="A219" s="17">
         <v>16</v>
       </c>
@@ -14475,8 +15139,11 @@
       <c r="R219" s="8">
         <v>2.5904754903643399</v>
       </c>
-    </row>
-    <row r="220" spans="1:18">
+      <c r="S219" s="23">
+        <v>31.0981451424291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
       <c r="A220" s="17">
         <v>16</v>
       </c>
@@ -14531,8 +15198,11 @@
       <c r="R220" s="8">
         <v>2.5567330348522299</v>
       </c>
-    </row>
-    <row r="221" spans="1:18">
+      <c r="S220" s="23">
+        <v>30.6930736476859</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19">
       <c r="A221" s="17">
         <v>16</v>
       </c>
@@ -14587,8 +15257,11 @@
       <c r="R221" s="8">
         <v>2.5431978901522099</v>
       </c>
-    </row>
-    <row r="222" spans="1:18">
+      <c r="S221" s="23">
+        <v>30.530586916593201</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19">
       <c r="A222" s="17">
         <v>16</v>
       </c>
@@ -14643,8 +15316,11 @@
       <c r="R222" s="8">
         <v>2.5145621677564902</v>
       </c>
-    </row>
-    <row r="223" spans="1:18">
+      <c r="S222" s="23">
+        <v>30.1868207413745</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19">
       <c r="A223" s="17">
         <v>16</v>
       </c>
@@ -14699,8 +15375,11 @@
       <c r="R223" s="8">
         <v>2.5594310660218298</v>
       </c>
-    </row>
-    <row r="224" spans="1:18">
+      <c r="S223" s="23">
+        <v>30.725462977452899</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19">
       <c r="A224" s="17">
         <v>16</v>
       </c>
@@ -14755,8 +15434,11 @@
       <c r="R224" s="8">
         <v>2.5301282417600599</v>
       </c>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="S224" s="23">
+        <v>30.3736883764713</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19">
       <c r="A225" s="17">
         <v>16</v>
       </c>
@@ -14811,8 +15493,11 @@
       <c r="R225" s="8">
         <v>2.4365951803221</v>
       </c>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="S225" s="23">
+        <v>29.250842500865598</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19">
       <c r="A226" s="17">
         <v>16</v>
       </c>
@@ -14867,8 +15552,11 @@
       <c r="R226" s="8">
         <v>2.34459955575069</v>
       </c>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="S226" s="23">
+        <v>28.146453250308401</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19">
       <c r="A227" s="17">
         <v>16</v>
       </c>
@@ -14923,8 +15611,11 @@
       <c r="R227" s="8">
         <v>2.3463600828231699</v>
       </c>
-    </row>
-    <row r="228" spans="1:18">
+      <c r="S227" s="23">
+        <v>28.1675880290897</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19">
       <c r="A228" s="17">
         <v>16</v>
       </c>
@@ -14979,8 +15670,11 @@
       <c r="R228" s="8">
         <v>2.4713901206059501</v>
       </c>
-    </row>
-    <row r="229" spans="1:18">
+      <c r="S228" s="23">
+        <v>29.668548866818099</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19">
       <c r="A229" s="17">
         <v>16</v>
       </c>
@@ -15035,8 +15729,11 @@
       <c r="R229" s="8">
         <v>2.5681892423382</v>
       </c>
-    </row>
-    <row r="230" spans="1:18">
+      <c r="S229" s="23">
+        <v>30.830603149318101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19">
       <c r="A230" s="17">
         <v>16</v>
       </c>
@@ -15091,8 +15788,11 @@
       <c r="R230" s="8">
         <v>2.5750981775139299</v>
       </c>
-    </row>
-    <row r="231" spans="1:18">
+      <c r="S230" s="23">
+        <v>30.913543547586201</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19">
       <c r="A231" s="17">
         <v>16</v>
       </c>
@@ -15147,8 +15847,11 @@
       <c r="R231" s="8">
         <v>2.5535494231735001</v>
       </c>
-    </row>
-    <row r="232" spans="1:18">
+      <c r="S231" s="23">
+        <v>30.6548550200901</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19">
       <c r="A232" s="17">
         <v>16</v>
       </c>
@@ -15203,8 +15906,11 @@
       <c r="R232" s="8">
         <v>2.4459189433769599</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" s="18" customFormat="1">
+      <c r="S232" s="23">
+        <v>29.362772429495301</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" s="18" customFormat="1">
       <c r="A233" s="18">
         <v>16</v>
       </c>
@@ -15259,8 +15965,11 @@
       <c r="R233" s="15">
         <v>2.38247427913721</v>
       </c>
-    </row>
-    <row r="234" spans="1:18">
+      <c r="S233" s="23">
+        <v>28.601131802367401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
       <c r="A234" s="17">
         <v>16</v>
       </c>
@@ -15315,8 +16024,11 @@
       <c r="R234" s="8">
         <v>2.3924283784228302</v>
       </c>
-    </row>
-    <row r="235" spans="1:18">
+      <c r="S234" s="23">
+        <v>28.720628792591</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19">
       <c r="A235" s="17">
         <v>16</v>
       </c>
@@ -15371,8 +16083,11 @@
       <c r="R235" s="8">
         <v>2.55089888452033</v>
       </c>
-    </row>
-    <row r="236" spans="1:18">
+      <c r="S235" s="23">
+        <v>30.6230358285754</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19">
       <c r="A236" s="17">
         <v>16</v>
       </c>
@@ -15427,8 +16142,11 @@
       <c r="R236" s="8">
         <v>2.5890412537934</v>
       </c>
-    </row>
-    <row r="237" spans="1:18">
+      <c r="S236" s="23">
+        <v>31.080927416487398</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19">
       <c r="A237" s="17">
         <v>16</v>
       </c>
@@ -15483,8 +16201,11 @@
       <c r="R237" s="8">
         <v>2.5076811371690799</v>
       </c>
-    </row>
-    <row r="238" spans="1:18">
+      <c r="S237" s="23">
+        <v>30.1042153321618</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
       <c r="A238" s="17">
         <v>16</v>
       </c>
@@ -15539,8 +16260,11 @@
       <c r="R238" s="8">
         <v>2.5258402176845598</v>
       </c>
-    </row>
-    <row r="239" spans="1:18">
+      <c r="S238" s="23">
+        <v>30.322211496813502</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19">
       <c r="A239" s="17">
         <v>16</v>
       </c>
@@ -15595,8 +16319,11 @@
       <c r="R239" s="8">
         <v>2.6307873587054398</v>
       </c>
-    </row>
-    <row r="240" spans="1:18">
+      <c r="S239" s="23">
+        <v>31.582081136919999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19">
       <c r="A240" s="17">
         <v>16</v>
       </c>
@@ -15651,8 +16378,11 @@
       <c r="R240" s="8">
         <v>2.6838517471981902</v>
       </c>
-    </row>
-    <row r="241" spans="1:18">
+      <c r="S240" s="23">
+        <v>32.2191086098222</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19">
       <c r="A241" s="17">
         <v>16</v>
       </c>
@@ -15707,8 +16437,11 @@
       <c r="R241" s="8">
         <v>2.5475003593943901</v>
       </c>
-    </row>
-    <row r="242" spans="1:18">
+      <c r="S241" s="23">
+        <v>30.582237207615702</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19">
       <c r="A242" s="17">
         <v>16</v>
       </c>
@@ -15763,8 +16496,11 @@
       <c r="R242" s="8">
         <v>2.5003194168479199</v>
       </c>
-    </row>
-    <row r="243" spans="1:18">
+      <c r="S242" s="23">
+        <v>30.015839337910201</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19">
       <c r="A243" s="17">
         <v>16</v>
       </c>
@@ -15819,8 +16555,11 @@
       <c r="R243" s="8">
         <v>2.4637035364619901</v>
       </c>
-    </row>
-    <row r="244" spans="1:18">
+      <c r="S243" s="23">
+        <v>29.5762729467226</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19">
       <c r="A244" s="17">
         <v>16</v>
       </c>
@@ -15875,8 +16614,11 @@
       <c r="R244" s="8">
         <v>2.3967810647307402</v>
       </c>
-    </row>
-    <row r="245" spans="1:18">
+      <c r="S244" s="23">
+        <v>28.772881929540699</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19">
       <c r="A245" s="17">
         <v>16</v>
       </c>
@@ -15931,8 +16673,11 @@
       <c r="R245" s="8">
         <v>2.40622417816168</v>
       </c>
-    </row>
-    <row r="246" spans="1:18">
+      <c r="S245" s="23">
+        <v>28.886244635794402</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19">
       <c r="A246" s="17">
         <v>16</v>
       </c>
@@ -15987,8 +16732,11 @@
       <c r="R246" s="8">
         <v>2.24045324084355</v>
       </c>
-    </row>
-    <row r="247" spans="1:18">
+      <c r="S246" s="23">
+        <v>26.8961973690703</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19">
       <c r="A247" s="17">
         <v>16</v>
       </c>
@@ -16043,8 +16791,11 @@
       <c r="R247" s="8">
         <v>2.40794919018209</v>
       </c>
-    </row>
-    <row r="248" spans="1:18">
+      <c r="S247" s="23">
+        <v>28.906953063410398</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19">
       <c r="A248" s="17">
         <v>16</v>
       </c>
@@ -16099,8 +16850,11 @@
       <c r="R248" s="8">
         <v>2.7350849710576401</v>
       </c>
-    </row>
-    <row r="249" spans="1:18">
+      <c r="S248" s="23">
+        <v>32.8341533140173</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19">
       <c r="A249" s="17">
         <v>16</v>
       </c>
@@ -16155,8 +16909,11 @@
       <c r="R249" s="8">
         <v>2.9649053741854101</v>
       </c>
-    </row>
-    <row r="250" spans="1:18">
+      <c r="S249" s="23">
+        <v>35.593101730917297</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19">
       <c r="A250" s="17">
         <v>16</v>
       </c>
@@ -16211,8 +16968,11 @@
       <c r="R250" s="8">
         <v>2.9903808560350398</v>
       </c>
-    </row>
-    <row r="251" spans="1:18">
+      <c r="S250" s="23">
+        <v>35.8989298443582</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19">
       <c r="A251" s="17">
         <v>16</v>
       </c>
@@ -16267,8 +17027,11 @@
       <c r="R251" s="8">
         <v>2.5653776364227401</v>
       </c>
-    </row>
-    <row r="252" spans="1:18">
+      <c r="S251" s="23">
+        <v>30.796850377223699</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19">
       <c r="A252" s="17">
         <v>16</v>
       </c>
@@ -16323,8 +17086,11 @@
       <c r="R252" s="8">
         <v>2.6204585438097601</v>
       </c>
-    </row>
-    <row r="253" spans="1:18">
+      <c r="S252" s="23">
+        <v>31.458085760021198</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19">
       <c r="A253" s="17">
         <v>16</v>
       </c>
@@ -16379,8 +17145,11 @@
       <c r="R253" s="8">
         <v>2.6274538251765098</v>
       </c>
-    </row>
-    <row r="254" spans="1:18">
+      <c r="S253" s="23">
+        <v>31.542062727209</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19">
       <c r="A254" s="17">
         <v>16</v>
       </c>
@@ -16435,8 +17204,11 @@
       <c r="R254" s="8">
         <v>2.73191354989028</v>
       </c>
-    </row>
-    <row r="255" spans="1:18">
+      <c r="S254" s="23">
+        <v>32.796081031095802</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19">
       <c r="A255" s="17">
         <v>16</v>
       </c>
@@ -16491,8 +17263,11 @@
       <c r="R255" s="8">
         <v>2.7541850174030098</v>
       </c>
-    </row>
-    <row r="256" spans="1:18">
+      <c r="S255" s="23">
+        <v>33.063445587070902</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19">
       <c r="A256" s="17">
         <v>16</v>
       </c>
@@ -16547,8 +17322,11 @@
       <c r="R256" s="8">
         <v>2.7539564995961201</v>
       </c>
-    </row>
-    <row r="257" spans="1:18">
+      <c r="S256" s="23">
+        <v>33.0607022760638</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19">
       <c r="A257" s="17">
         <v>16</v>
       </c>
@@ -16603,8 +17381,11 @@
       <c r="R257" s="8">
         <v>2.7329452781301402</v>
       </c>
-    </row>
-    <row r="258" spans="1:18">
+      <c r="S257" s="23">
+        <v>32.808466724251403</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19">
       <c r="A258" s="17">
         <v>16</v>
       </c>
@@ -16659,8 +17440,11 @@
       <c r="R258" s="8">
         <v>2.7533500751618698</v>
       </c>
-    </row>
-    <row r="259" spans="1:18">
+      <c r="S258" s="23">
+        <v>33.053422270850803</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19">
       <c r="A259" s="17">
         <v>16</v>
       </c>
@@ -16715,8 +17499,11 @@
       <c r="R259" s="8">
         <v>2.7112586848607898</v>
       </c>
-    </row>
-    <row r="260" spans="1:18">
+      <c r="S259" s="23">
+        <v>32.548123467716501</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19">
       <c r="A260" s="17">
         <v>16</v>
       </c>
@@ -16771,8 +17558,11 @@
       <c r="R260" s="8">
         <v>2.8075238640306699</v>
       </c>
-    </row>
-    <row r="261" spans="1:18">
+      <c r="S260" s="23">
+        <v>33.703767875518302</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19">
       <c r="A261" s="17">
         <v>16</v>
       </c>
@@ -16827,8 +17617,11 @@
       <c r="R261" s="8">
         <v>2.7706312267245701</v>
       </c>
-    </row>
-    <row r="262" spans="1:18">
+      <c r="S261" s="23">
+        <v>33.260879072323803</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19">
       <c r="A262" s="17">
         <v>16</v>
       </c>
@@ -16883,8 +17676,11 @@
       <c r="R262" s="8">
         <v>2.7889403111414701</v>
       </c>
-    </row>
-    <row r="263" spans="1:18">
+      <c r="S262" s="23">
+        <v>33.480676004099301</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19">
       <c r="A263" s="17">
         <v>16</v>
       </c>
@@ -16939,8 +17735,11 @@
       <c r="R263" s="8">
         <v>2.6435110756537799</v>
       </c>
-    </row>
-    <row r="264" spans="1:18">
+      <c r="S263" s="23">
+        <v>31.734826838580702</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19">
       <c r="A264" s="17">
         <v>16</v>
       </c>
@@ -16995,8 +17794,11 @@
       <c r="R264" s="8">
         <v>2.62465004630773</v>
       </c>
-    </row>
-    <row r="265" spans="1:18">
+      <c r="S264" s="23">
+        <v>31.508403917259699</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19">
       <c r="A265" s="17">
         <v>16</v>
       </c>
@@ -17051,8 +17853,11 @@
       <c r="R265" s="8">
         <v>2.53723144822811</v>
       </c>
-    </row>
-    <row r="266" spans="1:18">
+      <c r="S265" s="23">
+        <v>30.4589609631225</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19">
       <c r="A266" s="17">
         <v>16</v>
       </c>
@@ -17107,8 +17912,11 @@
       <c r="R266" s="8">
         <v>2.7055250812076101</v>
       </c>
-    </row>
-    <row r="267" spans="1:18">
+      <c r="S266" s="23">
+        <v>32.479292691567998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19">
       <c r="A267" s="17">
         <v>16</v>
       </c>
@@ -17163,8 +17971,11 @@
       <c r="R267" s="8">
         <v>2.7087886222605602</v>
       </c>
-    </row>
-    <row r="268" spans="1:18">
+      <c r="S267" s="23">
+        <v>32.518470855468898</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19">
       <c r="A268" s="17">
         <v>16</v>
       </c>
@@ -17219,8 +18030,11 @@
       <c r="R268" s="8">
         <v>2.8206986060270101</v>
       </c>
-    </row>
-    <row r="269" spans="1:18">
+      <c r="S268" s="23">
+        <v>33.861928043541504</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19">
       <c r="A269" s="17">
         <v>16</v>
       </c>
@@ -17275,8 +18089,11 @@
       <c r="R269" s="8">
         <v>2.7243690917326102</v>
       </c>
-    </row>
-    <row r="270" spans="1:18">
+      <c r="S269" s="23">
+        <v>32.7055113053135</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19">
       <c r="A270" s="17">
         <v>16</v>
       </c>
@@ -17331,8 +18148,11 @@
       <c r="R270" s="8">
         <v>2.7217404960873401</v>
       </c>
-    </row>
-    <row r="271" spans="1:18">
+      <c r="S270" s="23">
+        <v>32.673955535262202</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19">
       <c r="A271" s="17">
         <v>16</v>
       </c>
@@ -17387,8 +18207,11 @@
       <c r="R271" s="8">
         <v>2.7152793529025998</v>
       </c>
-    </row>
-    <row r="272" spans="1:18">
+      <c r="S271" s="23">
+        <v>32.596390791147599</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19">
       <c r="A272" s="17">
         <v>16</v>
       </c>
@@ -17443,8 +18266,11 @@
       <c r="R272" s="8">
         <v>2.7778322033348601</v>
       </c>
-    </row>
-    <row r="273" spans="1:18">
+      <c r="S272" s="23">
+        <v>33.347325370166402</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19">
       <c r="A273" s="17">
         <v>16</v>
       </c>
@@ -17499,8 +18325,11 @@
       <c r="R273" s="8">
         <v>2.79444766952646</v>
       </c>
-    </row>
-    <row r="274" spans="1:18" s="18" customFormat="1">
+      <c r="S273" s="23">
+        <v>33.546790750617703</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" s="18" customFormat="1">
       <c r="A274" s="18">
         <v>16</v>
       </c>
@@ -17555,8 +18384,11 @@
       <c r="R274" s="15">
         <v>2.8506939106642499</v>
       </c>
-    </row>
-    <row r="275" spans="1:18">
+      <c r="S274" s="23">
+        <v>34.222015734264701</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19">
       <c r="A275" s="17">
         <v>16</v>
       </c>
@@ -17611,8 +18443,11 @@
       <c r="R275" s="8">
         <v>2.6557906324182601</v>
       </c>
-    </row>
-    <row r="276" spans="1:18">
+      <c r="S275" s="23">
+        <v>31.882240485213199</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19">
       <c r="A276" s="17">
         <v>16</v>
       </c>
@@ -17667,8 +18502,11 @@
       <c r="R276" s="8">
         <v>2.39730851069845</v>
       </c>
-    </row>
-    <row r="277" spans="1:18">
+      <c r="S276" s="23">
+        <v>28.7792138139069</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19">
       <c r="A277" s="17">
         <v>16</v>
       </c>
@@ -17723,8 +18561,11 @@
       <c r="R277" s="8">
         <v>2.5671749318913801</v>
       </c>
-    </row>
-    <row r="278" spans="1:18">
+      <c r="S277" s="23">
+        <v>30.818426553317899</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19">
       <c r="A278" s="17">
         <v>16</v>
       </c>
@@ -17779,8 +18620,11 @@
       <c r="R278" s="8">
         <v>2.7645652620016201</v>
       </c>
-    </row>
-    <row r="279" spans="1:18">
+      <c r="S278" s="23">
+        <v>33.188058367366402</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19">
       <c r="A279" s="17">
         <v>16</v>
       </c>
@@ -17835,8 +18679,11 @@
       <c r="R279" s="8">
         <v>2.97930666052252</v>
       </c>
-    </row>
-    <row r="280" spans="1:18">
+      <c r="S279" s="23">
+        <v>35.765986320798497</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19">
       <c r="A280" s="17">
         <v>16</v>
       </c>
@@ -17891,8 +18738,11 @@
       <c r="R280" s="8">
         <v>2.84726159657288</v>
       </c>
-    </row>
-    <row r="281" spans="1:18">
+      <c r="S280" s="23">
+        <v>34.180811483467899</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19">
       <c r="A281" s="17">
         <v>16</v>
       </c>
@@ -17947,8 +18797,11 @@
       <c r="R281" s="8">
         <v>2.7440234636853198</v>
       </c>
-    </row>
-    <row r="282" spans="1:18">
+      <c r="S281" s="23">
+        <v>32.941458147482898</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19">
       <c r="A282" s="17">
         <v>16</v>
       </c>
@@ -18003,8 +18856,11 @@
       <c r="R282" s="8">
         <v>2.7987170401502199</v>
       </c>
-    </row>
-    <row r="283" spans="1:18">
+      <c r="S282" s="23">
+        <v>33.5980436992823</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19">
       <c r="A283" s="17">
         <v>16</v>
       </c>
@@ -18059,8 +18915,11 @@
       <c r="R283" s="8">
         <v>2.7005430726910999</v>
       </c>
-    </row>
-    <row r="284" spans="1:18">
+      <c r="S283" s="23">
+        <v>32.419484666159597</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19">
       <c r="A284" s="17">
         <v>16</v>
       </c>
@@ -18115,8 +18974,11 @@
       <c r="R284" s="8">
         <v>2.8805399599129</v>
       </c>
-    </row>
-    <row r="285" spans="1:18">
+      <c r="S284" s="23">
+        <v>34.580311643612198</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19">
       <c r="A285" s="17">
         <v>16</v>
       </c>
@@ -18171,8 +19033,11 @@
       <c r="R285" s="8">
         <v>2.6752100640016798</v>
       </c>
-    </row>
-    <row r="286" spans="1:18">
+      <c r="S285" s="23">
+        <v>32.115366914786101</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19">
       <c r="A286" s="17">
         <v>16</v>
       </c>
@@ -18227,8 +19092,11 @@
       <c r="R286" s="8">
         <v>2.79899763796704</v>
       </c>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286" s="23">
+        <v>33.601412220492698</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19">
       <c r="A287" s="17">
         <v>16</v>
       </c>
@@ -18283,8 +19151,11 @@
       <c r="R287" s="8">
         <v>2.6372529735653298</v>
       </c>
-    </row>
-    <row r="288" spans="1:18">
+      <c r="S287" s="23">
+        <v>31.6596995626089</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19">
       <c r="A288" s="17">
         <v>16</v>
       </c>
@@ -18339,8 +19210,11 @@
       <c r="R288" s="8">
         <v>2.9130952197882101</v>
       </c>
-    </row>
-    <row r="289" spans="1:18">
+      <c r="S288" s="23">
+        <v>34.971131089894499</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19">
       <c r="A289" s="17">
         <v>16</v>
       </c>
@@ -18395,8 +19269,11 @@
       <c r="R289" s="8">
         <v>2.85612660485363</v>
       </c>
-    </row>
-    <row r="290" spans="1:18">
+      <c r="S289" s="23">
+        <v>34.2872341519044</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19">
       <c r="A290" s="17">
         <v>16</v>
       </c>
@@ -18451,8 +19328,11 @@
       <c r="R290" s="8">
         <v>2.6255723865045399</v>
       </c>
-    </row>
-    <row r="291" spans="1:18">
+      <c r="S290" s="23">
+        <v>31.519476428626</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19">
       <c r="A291" s="17">
         <v>16</v>
       </c>
@@ -18507,8 +19387,11 @@
       <c r="R291" s="8">
         <v>2.7118848251831298</v>
       </c>
-    </row>
-    <row r="292" spans="1:18">
+      <c r="S291" s="23">
+        <v>32.5556401582609</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19">
       <c r="A292" s="17">
         <v>16</v>
       </c>
@@ -18563,8 +19446,11 @@
       <c r="R292" s="8">
         <v>3.0086575312148098</v>
       </c>
-    </row>
-    <row r="293" spans="1:18">
+      <c r="S292" s="23">
+        <v>36.118337709661603</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19">
       <c r="A293" s="17">
         <v>16</v>
       </c>
@@ -18619,8 +19505,11 @@
       <c r="R293" s="8">
         <v>3.3899574519362101</v>
       </c>
-    </row>
-    <row r="294" spans="1:18">
+      <c r="S293" s="23">
+        <v>40.6957677303267</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19">
       <c r="A294" s="17">
         <v>16</v>
       </c>
@@ -18675,8 +19564,11 @@
       <c r="R294" s="8">
         <v>2.9950673056551702</v>
       </c>
-    </row>
-    <row r="295" spans="1:18">
+      <c r="S294" s="23">
+        <v>35.955189743759497</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19">
       <c r="A295" s="17">
         <v>16</v>
       </c>
@@ -18731,8 +19623,11 @@
       <c r="R295" s="8">
         <v>2.8594149599489902</v>
       </c>
-    </row>
-    <row r="296" spans="1:18">
+      <c r="S295" s="23">
+        <v>34.326710203469297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19">
       <c r="A296" s="17">
         <v>16</v>
       </c>
@@ -18787,8 +19682,11 @@
       <c r="R296" s="8">
         <v>2.9235707737657899</v>
       </c>
-    </row>
-    <row r="297" spans="1:18">
+      <c r="S296" s="23">
+        <v>35.096888040405702</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19">
       <c r="A297" s="17">
         <v>16</v>
       </c>
@@ -18843,8 +19741,11 @@
       <c r="R297" s="8">
         <v>3.2557431838958202</v>
       </c>
-    </row>
-    <row r="298" spans="1:18">
+      <c r="S297" s="23">
+        <v>39.084552027560903</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19">
       <c r="A298" s="17">
         <v>16</v>
       </c>
@@ -18899,8 +19800,11 @@
       <c r="R298" s="8">
         <v>3.3034194062244602</v>
       </c>
-    </row>
-    <row r="299" spans="1:18">
+      <c r="S298" s="23">
+        <v>39.6568956329467</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19">
       <c r="A299" s="17">
         <v>16</v>
       </c>
@@ -18955,8 +19859,11 @@
       <c r="R299" s="8">
         <v>3.10520883691989</v>
       </c>
-    </row>
-    <row r="300" spans="1:18">
+      <c r="S299" s="23">
+        <v>37.277417009842701</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19">
       <c r="A300" s="17">
         <v>16</v>
       </c>
@@ -19011,8 +19918,11 @@
       <c r="R300" s="8">
         <v>3.0325732711712901</v>
       </c>
-    </row>
-    <row r="301" spans="1:18">
+      <c r="S300" s="23">
+        <v>36.405441430627697</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19">
       <c r="A301" s="17">
         <v>16</v>
       </c>
@@ -19067,8 +19977,11 @@
       <c r="R301" s="8">
         <v>2.89528265892389</v>
       </c>
-    </row>
-    <row r="302" spans="1:18">
+      <c r="S301" s="23">
+        <v>34.7572948250167</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19">
       <c r="A302" s="17">
         <v>16</v>
       </c>
@@ -19123,8 +20036,11 @@
       <c r="R302" s="8">
         <v>2.8289475347834898</v>
       </c>
-    </row>
-    <row r="303" spans="1:18">
+      <c r="S302" s="23">
+        <v>33.960954799321598</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19">
       <c r="A303" s="17">
         <v>16</v>
       </c>
@@ -19179,8 +20095,11 @@
       <c r="R303" s="8">
         <v>2.8100045033774599</v>
       </c>
-    </row>
-    <row r="304" spans="1:18">
+      <c r="S303" s="23">
+        <v>33.733547459513403</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19">
       <c r="A304" s="17">
         <v>16</v>
       </c>
@@ -19235,8 +20154,11 @@
       <c r="R304" s="8">
         <v>2.84350729435663</v>
       </c>
-    </row>
-    <row r="305" spans="1:18">
+      <c r="S304" s="23">
+        <v>34.135741829011103</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19">
       <c r="A305" s="17">
         <v>16</v>
       </c>
@@ -19291,8 +20213,11 @@
       <c r="R305" s="8">
         <v>2.9743120143614799</v>
       </c>
-    </row>
-    <row r="306" spans="1:18">
+      <c r="S305" s="23">
+        <v>35.7060265829709</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19">
       <c r="A306" s="17">
         <v>16</v>
       </c>
@@ -19347,8 +20272,11 @@
       <c r="R306" s="8">
         <v>2.9155894999107401</v>
       </c>
-    </row>
-    <row r="307" spans="1:18">
+      <c r="S306" s="23">
+        <v>35.001074428700399</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19">
       <c r="A307" s="17">
         <v>16</v>
       </c>
@@ -19403,8 +20331,11 @@
       <c r="R307" s="8">
         <v>2.7390750403537898</v>
       </c>
-    </row>
-    <row r="308" spans="1:18">
+      <c r="S307" s="23">
+        <v>32.882053305567702</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19">
       <c r="A308" s="17">
         <v>16</v>
       </c>
@@ -19459,8 +20390,11 @@
       <c r="R308" s="8">
         <v>2.8010525363046699</v>
       </c>
-    </row>
-    <row r="309" spans="1:18">
+      <c r="S308" s="23">
+        <v>33.6260808680032</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19">
       <c r="A309" s="17">
         <v>16</v>
       </c>
@@ -19515,8 +20449,11 @@
       <c r="R309" s="8">
         <v>2.8610564949565802</v>
       </c>
-    </row>
-    <row r="310" spans="1:18">
+      <c r="S309" s="23">
+        <v>34.346416506081397</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19">
       <c r="A310" s="17">
         <v>16</v>
       </c>
@@ -19571,8 +20508,11 @@
       <c r="R310" s="8">
         <v>3.1386367599047</v>
       </c>
-    </row>
-    <row r="311" spans="1:18">
+      <c r="S310" s="23">
+        <v>37.6787126038979</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19">
       <c r="A311" s="17">
         <v>16</v>
       </c>
@@ -19627,8 +20567,11 @@
       <c r="R311" s="8">
         <v>2.9926912305164599</v>
       </c>
-    </row>
-    <row r="312" spans="1:18">
+      <c r="S311" s="23">
+        <v>35.926665432370399</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19">
       <c r="A312" s="17">
         <v>16</v>
       </c>
@@ -19683,8 +20626,11 @@
       <c r="R312" s="8">
         <v>3.0734232201946998</v>
       </c>
-    </row>
-    <row r="313" spans="1:18">
+      <c r="S312" s="23">
+        <v>36.895836977127203</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19">
       <c r="A313" s="17">
         <v>16</v>
       </c>
@@ -19739,8 +20685,11 @@
       <c r="R313" s="8">
         <v>2.97700311090653</v>
       </c>
-    </row>
-    <row r="314" spans="1:18">
+      <c r="S313" s="23">
+        <v>35.738332663944</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19">
       <c r="A314" s="17">
         <v>16</v>
       </c>
@@ -19795,8 +20744,11 @@
       <c r="R314" s="8">
         <v>2.8440096229247298</v>
       </c>
-    </row>
-    <row r="315" spans="1:18">
+      <c r="S314" s="23">
+        <v>34.141772183970403</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19">
       <c r="A315" s="17">
         <v>16</v>
       </c>
@@ -19851,8 +20803,11 @@
       <c r="R315" s="8">
         <v>2.9274905500933501</v>
       </c>
-    </row>
-    <row r="316" spans="1:18">
+      <c r="S315" s="23">
+        <v>35.143944178791699</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19">
       <c r="A316" s="17">
         <v>16</v>
       </c>
@@ -19907,8 +20862,11 @@
       <c r="R316" s="8">
         <v>2.92515550909991</v>
       </c>
-    </row>
-    <row r="317" spans="1:18" s="18" customFormat="1">
+      <c r="S316" s="23">
+        <v>35.115912474188598</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" s="18" customFormat="1">
       <c r="A317" s="18">
         <v>16</v>
       </c>
@@ -19963,8 +20921,11 @@
       <c r="R317" s="15">
         <v>3.0677688676325201</v>
       </c>
-    </row>
-    <row r="318" spans="1:18">
+      <c r="S317" s="23">
+        <v>36.827957594628003</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19">
       <c r="A318" s="17">
         <v>16</v>
       </c>
@@ -20019,8 +20980,11 @@
       <c r="R318" s="8">
         <v>2.8123760846234398</v>
       </c>
-    </row>
-    <row r="319" spans="1:18">
+      <c r="S318" s="23">
+        <v>33.762017822610296</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19">
       <c r="A319" s="17">
         <v>16</v>
       </c>
@@ -20075,8 +21039,11 @@
       <c r="R319" s="8">
         <v>2.9355343672824499</v>
       </c>
-    </row>
-    <row r="320" spans="1:18">
+      <c r="S319" s="23">
+        <v>35.2405086108337</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19">
       <c r="A320" s="17">
         <v>16</v>
       </c>
@@ -20131,8 +21098,11 @@
       <c r="R320" s="8">
         <v>3.0976312904740402</v>
       </c>
-    </row>
-    <row r="321" spans="1:18">
+      <c r="S320" s="23">
+        <v>37.186450065714702</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19">
       <c r="A321" s="17">
         <v>16</v>
       </c>
@@ -20187,8 +21157,11 @@
       <c r="R321" s="8">
         <v>3.2683753496298</v>
       </c>
-    </row>
-    <row r="322" spans="1:18">
+      <c r="S321" s="23">
+        <v>39.236198675027602</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
       <c r="A322" s="17">
         <v>16</v>
       </c>
@@ -20243,8 +21216,11 @@
       <c r="R322" s="8">
         <v>3.3634871768500498</v>
       </c>
-    </row>
-    <row r="323" spans="1:18">
+      <c r="S322" s="23">
+        <v>40.377997321129101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19">
       <c r="A323" s="17">
         <v>16</v>
       </c>
@@ -20299,8 +21275,11 @@
       <c r="R323" s="8">
         <v>3.3385207980764</v>
       </c>
-    </row>
-    <row r="324" spans="1:18">
+      <c r="S323" s="23">
+        <v>40.078280889272499</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
       <c r="A324" s="17">
         <v>16</v>
       </c>
@@ -20355,8 +21334,11 @@
       <c r="R324" s="8">
         <v>3.3780783758042499</v>
       </c>
-    </row>
-    <row r="325" spans="1:18">
+      <c r="S324" s="23">
+        <v>40.553161774360703</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
       <c r="A325" s="17">
         <v>16</v>
       </c>
@@ -20411,8 +21393,11 @@
       <c r="R325" s="8">
         <v>3.20227169049635</v>
       </c>
-    </row>
-    <row r="326" spans="1:18">
+      <c r="S325" s="23">
+        <v>38.442637340892603</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
       <c r="A326" s="17">
         <v>16</v>
       </c>
@@ -20467,8 +21452,11 @@
       <c r="R326" s="8">
         <v>3.1645046961991099</v>
       </c>
-    </row>
-    <row r="327" spans="1:18">
+      <c r="S326" s="23">
+        <v>37.989252055211502</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
       <c r="A327" s="17">
         <v>16</v>
       </c>
@@ -20523,8 +21511,11 @@
       <c r="R327" s="8">
         <v>3.17514315963941</v>
       </c>
-    </row>
-    <row r="328" spans="1:18">
+      <c r="S327" s="23">
+        <v>38.116964701553499</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
       <c r="A328" s="17">
         <v>16</v>
       </c>
@@ -20579,8 +21570,11 @@
       <c r="R328" s="8">
         <v>3.15357748481973</v>
       </c>
-    </row>
-    <row r="329" spans="1:18">
+      <c r="S328" s="23">
+        <v>37.858073047055598</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
       <c r="A329" s="17">
         <v>16</v>
       </c>
@@ -20635,8 +21629,11 @@
       <c r="R329" s="8">
         <v>3.0577845775279302</v>
       </c>
-    </row>
-    <row r="330" spans="1:18">
+      <c r="S329" s="23">
+        <v>36.708098169602998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
       <c r="A330" s="17">
         <v>16</v>
       </c>
@@ -20691,8 +21688,11 @@
       <c r="R330" s="8">
         <v>3.0299792612902099</v>
       </c>
-    </row>
-    <row r="331" spans="1:18">
+      <c r="S330" s="23">
+        <v>36.374300855824899</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
       <c r="A331" s="17">
         <v>16</v>
       </c>
@@ -20747,8 +21747,11 @@
       <c r="R331" s="8">
         <v>3.1783474835352701</v>
       </c>
-    </row>
-    <row r="332" spans="1:18">
+      <c r="S331" s="23">
+        <v>38.155431975213297</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
       <c r="A332" s="17">
         <v>16</v>
       </c>
@@ -20803,8 +21806,11 @@
       <c r="R332" s="8">
         <v>3.20535100089733</v>
       </c>
-    </row>
-    <row r="333" spans="1:18">
+      <c r="S332" s="23">
+        <v>38.479603852308898</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19">
       <c r="A333" s="17">
         <v>16</v>
       </c>
@@ -20859,8 +21865,11 @@
       <c r="R333" s="8">
         <v>3.0380319467425401</v>
       </c>
-    </row>
-    <row r="334" spans="1:18">
+      <c r="S333" s="23">
+        <v>36.470971749610399</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19">
       <c r="A334" s="17">
         <v>16</v>
       </c>
@@ -20915,8 +21924,11 @@
       <c r="R334" s="8">
         <v>2.9583338747183801</v>
       </c>
-    </row>
-    <row r="335" spans="1:18">
+      <c r="S334" s="23">
+        <v>35.5142121814932</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19">
       <c r="A335" s="17">
         <v>16</v>
       </c>
@@ -20971,8 +21983,11 @@
       <c r="R335" s="8">
         <v>3.1515819582756501</v>
       </c>
-    </row>
-    <row r="336" spans="1:18">
+      <c r="S335" s="23">
+        <v>37.8341171461662</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19">
       <c r="A336" s="17">
         <v>16</v>
       </c>
@@ -21027,8 +22042,11 @@
       <c r="R336" s="8">
         <v>3.41370060786209</v>
       </c>
-    </row>
-    <row r="337" spans="1:18">
+      <c r="S336" s="23">
+        <v>40.980799614190801</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19">
       <c r="A337" s="17">
         <v>16</v>
       </c>
@@ -21083,8 +22101,11 @@
       <c r="R337" s="8">
         <v>3.29509529995671</v>
       </c>
-    </row>
-    <row r="338" spans="1:18">
+      <c r="S337" s="23">
+        <v>39.556966386035</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19">
       <c r="A338" s="17">
         <v>16</v>
       </c>
@@ -21139,8 +22160,11 @@
       <c r="R338" s="8">
         <v>3.1083600196737602</v>
       </c>
-    </row>
-    <row r="339" spans="1:18">
+      <c r="S338" s="23">
+        <v>37.315246334618898</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19">
       <c r="A339" s="17">
         <v>16</v>
       </c>
@@ -21195,8 +22219,11 @@
       <c r="R339" s="8">
         <v>3.07498932276448</v>
       </c>
-    </row>
-    <row r="340" spans="1:18">
+      <c r="S339" s="23">
+        <v>36.914637728265099</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19">
       <c r="A340" s="17">
         <v>16</v>
       </c>
@@ -21251,8 +22278,11 @@
       <c r="R340" s="8">
         <v>3.2423837203454502</v>
       </c>
-    </row>
-    <row r="341" spans="1:18">
+      <c r="S340" s="23">
+        <v>38.924174313870999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19">
       <c r="A341" s="17">
         <v>16</v>
       </c>
@@ -21307,8 +22337,11 @@
       <c r="R341" s="8">
         <v>3.3214176540284801</v>
       </c>
-    </row>
-    <row r="342" spans="1:18">
+      <c r="S341" s="23">
+        <v>39.872961032754901</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19">
       <c r="A342" s="17">
         <v>16</v>
       </c>
@@ -21363,8 +22396,11 @@
       <c r="R342" s="8">
         <v>3.39016005132016</v>
       </c>
-    </row>
-    <row r="343" spans="1:18">
+      <c r="S342" s="23">
+        <v>40.698199895800201</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19">
       <c r="A343" s="17">
         <v>16</v>
       </c>
@@ -21419,8 +22455,11 @@
       <c r="R343" s="8">
         <v>3.33755897756124</v>
       </c>
-    </row>
-    <row r="344" spans="1:18">
+      <c r="S343" s="23">
+        <v>40.066734424504702</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19">
       <c r="A344" s="17">
         <v>16</v>
       </c>
@@ -21475,8 +22514,11 @@
       <c r="R344" s="8">
         <v>3.26139188312963</v>
       </c>
-    </row>
-    <row r="345" spans="1:18">
+      <c r="S344" s="23">
+        <v>39.1523635429728</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19">
       <c r="A345" s="17">
         <v>16</v>
       </c>
@@ -21531,8 +22573,11 @@
       <c r="R345" s="8">
         <v>3.1828749873601501</v>
       </c>
-    </row>
-    <row r="346" spans="1:18">
+      <c r="S345" s="23">
+        <v>38.2097837618265</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
       <c r="A346" s="17">
         <v>16</v>
       </c>
@@ -21587,8 +22632,11 @@
       <c r="R346" s="8">
         <v>3.1405498430938601</v>
       </c>
-    </row>
-    <row r="347" spans="1:18">
+      <c r="S346" s="23">
+        <v>37.7016787886418</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19">
       <c r="A347" s="17">
         <v>16</v>
       </c>
@@ -21643,8 +22691,11 @@
       <c r="R347" s="8">
         <v>3.1139218304705101</v>
       </c>
-    </row>
-    <row r="348" spans="1:18">
+      <c r="S347" s="23">
+        <v>37.3820147715548</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
       <c r="A348" s="17">
         <v>16</v>
       </c>
@@ -21699,8 +22750,11 @@
       <c r="R348" s="8">
         <v>3.0502898164620502</v>
       </c>
-    </row>
-    <row r="349" spans="1:18">
+      <c r="S348" s="23">
+        <v>36.618125047563602</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19">
       <c r="A349" s="17">
         <v>16</v>
       </c>
@@ -21755,8 +22809,11 @@
       <c r="R349" s="8">
         <v>2.9751014899405299</v>
       </c>
-    </row>
-    <row r="350" spans="1:18">
+      <c r="S349" s="23">
+        <v>35.715504080918699</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19">
       <c r="A350" s="17">
         <v>16</v>
       </c>
@@ -21811,8 +22868,11 @@
       <c r="R350" s="8">
         <v>2.9729088084483699</v>
       </c>
-    </row>
-    <row r="351" spans="1:18">
+      <c r="S350" s="23">
+        <v>35.689181373929998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19">
       <c r="A351" s="17">
         <v>16</v>
       </c>
@@ -21867,8 +22927,11 @@
       <c r="R351" s="8">
         <v>3.2539819152799998</v>
       </c>
-    </row>
-    <row r="352" spans="1:18">
+      <c r="S351" s="23">
+        <v>39.063408346698701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19">
       <c r="A352" s="17">
         <v>16</v>
       </c>
@@ -21923,8 +22986,11 @@
       <c r="R352" s="8">
         <v>3.3574833934226098</v>
       </c>
-    </row>
-    <row r="353" spans="1:18">
+      <c r="S352" s="23">
+        <v>40.305923090307402</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19">
       <c r="A353" s="17">
         <v>16</v>
       </c>
@@ -21979,8 +23045,11 @@
       <c r="R353" s="8">
         <v>3.38973624342752</v>
       </c>
-    </row>
-    <row r="354" spans="1:18">
+      <c r="S353" s="23">
+        <v>40.693112165996602</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19">
       <c r="A354" s="17">
         <v>16</v>
       </c>
@@ -22035,8 +23104,11 @@
       <c r="R354" s="8">
         <v>3.2915435067389001</v>
       </c>
-    </row>
-    <row r="355" spans="1:18">
+      <c r="S354" s="23">
+        <v>39.514327811991599</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19">
       <c r="A355" s="17">
         <v>16</v>
       </c>
@@ -22091,8 +23163,11 @@
       <c r="R355" s="8">
         <v>3.2807546245738899</v>
       </c>
-    </row>
-    <row r="356" spans="1:18">
+      <c r="S355" s="23">
+        <v>39.3848094186541</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19">
       <c r="A356" s="17">
         <v>16</v>
       </c>
@@ -22147,8 +23222,11 @@
       <c r="R356" s="8">
         <v>3.26876187695694</v>
       </c>
-    </row>
-    <row r="357" spans="1:18">
+      <c r="S356" s="23">
+        <v>39.240838859026901</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19">
       <c r="A357" s="17">
         <v>16</v>
       </c>
@@ -22203,8 +23281,11 @@
       <c r="R357" s="8">
         <v>3.1876798637306099</v>
       </c>
-    </row>
-    <row r="358" spans="1:18">
+      <c r="S357" s="23">
+        <v>38.267465350907699</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19">
       <c r="A358" s="17">
         <v>16</v>
       </c>
@@ -22259,8 +23340,11 @@
       <c r="R358" s="8">
         <v>3.1731287304676399</v>
       </c>
-    </row>
-    <row r="359" spans="1:18">
+      <c r="S358" s="23">
+        <v>38.092781878362999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19">
       <c r="A359" s="17">
         <v>16</v>
       </c>
@@ -22315,8 +23399,11 @@
       <c r="R359" s="8">
         <v>3.1375698414780202</v>
       </c>
-    </row>
-    <row r="360" spans="1:18">
+      <c r="S359" s="23">
+        <v>37.6659044595201</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19">
       <c r="A360" s="17">
         <v>16</v>
       </c>
@@ -22371,8 +23458,11 @@
       <c r="R360" s="8">
         <v>3.1716541905354401</v>
       </c>
-    </row>
-    <row r="361" spans="1:18">
+      <c r="S360" s="23">
+        <v>38.0750803185527</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19">
       <c r="A361" s="17">
         <v>16</v>
       </c>
@@ -22427,8 +23517,11 @@
       <c r="R361" s="8">
         <v>3.1815558564806401</v>
       </c>
-    </row>
-    <row r="362" spans="1:18">
+      <c r="S361" s="23">
+        <v>38.193947856910498</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19">
       <c r="A362" s="17">
         <v>16</v>
       </c>
@@ -22483,8 +23576,11 @@
       <c r="R362" s="8">
         <v>3.2497530112330901</v>
       </c>
-    </row>
-    <row r="363" spans="1:18">
+      <c r="S362" s="23">
+        <v>39.012641191273602</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19">
       <c r="A363" s="17">
         <v>16</v>
       </c>
@@ -22539,8 +23635,11 @@
       <c r="R363" s="8">
         <v>3.2060359107804302</v>
       </c>
-    </row>
-    <row r="364" spans="1:18">
+      <c r="S363" s="23">
+        <v>38.4878260597891</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19">
       <c r="A364" s="17">
         <v>16</v>
       </c>
@@ -22595,8 +23694,11 @@
       <c r="R364" s="8">
         <v>3.1932759137673301</v>
       </c>
-    </row>
-    <row r="365" spans="1:18">
+      <c r="S364" s="23">
+        <v>38.334644823137197</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19">
       <c r="A365" s="17">
         <v>16</v>
       </c>
@@ -22651,8 +23753,11 @@
       <c r="R365" s="8">
         <v>3.1616690018531202</v>
       </c>
-    </row>
-    <row r="366" spans="1:18">
+      <c r="S365" s="23">
+        <v>37.9552101062799</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19">
       <c r="A366" s="17">
         <v>16</v>
       </c>
@@ -22707,8 +23812,11 @@
       <c r="R366" s="8">
         <v>3.20182189356199</v>
       </c>
-    </row>
-    <row r="367" spans="1:18">
+      <c r="S366" s="23">
+        <v>38.437237617791098</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19">
       <c r="A367" s="17">
         <v>16</v>
       </c>
@@ -22763,8 +23871,11 @@
       <c r="R367" s="8">
         <v>3.1009198517566499</v>
       </c>
-    </row>
-    <row r="368" spans="1:18" s="18" customFormat="1">
+      <c r="S367" s="23">
+        <v>37.225928592516802</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" s="18" customFormat="1">
       <c r="A368" s="18">
         <v>16</v>
       </c>
@@ -22819,8 +23930,11 @@
       <c r="R368" s="15">
         <v>3.0880848647724801</v>
       </c>
-    </row>
-    <row r="369" spans="1:18">
+      <c r="S368" s="23">
+        <v>37.071847116116302</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19">
       <c r="A369" s="17">
         <v>16</v>
       </c>
@@ -22875,8 +23989,11 @@
       <c r="R369" s="8">
         <v>3.0732711208043701</v>
       </c>
-    </row>
-    <row r="370" spans="1:18">
+      <c r="S369" s="23">
+        <v>36.894011054073999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19">
       <c r="A370" s="17">
         <v>16</v>
       </c>
@@ -22931,8 +24048,11 @@
       <c r="R370" s="8">
         <v>3.2400701491610602</v>
       </c>
-    </row>
-    <row r="371" spans="1:18">
+      <c r="S370" s="23">
+        <v>38.896400350072703</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19">
       <c r="A371" s="17">
         <v>16</v>
       </c>
@@ -22987,8 +24107,11 @@
       <c r="R371" s="8">
         <v>3.3474209713471001</v>
       </c>
-    </row>
-    <row r="372" spans="1:18">
+      <c r="S371" s="23">
+        <v>40.1851257064477</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19">
       <c r="A372" s="17">
         <v>16</v>
       </c>
@@ -23043,8 +24166,11 @@
       <c r="R372" s="8">
         <v>3.3546019384800001</v>
       </c>
-    </row>
-    <row r="373" spans="1:18">
+      <c r="S372" s="23">
+        <v>40.271331794477703</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19">
       <c r="A373" s="17">
         <v>16</v>
       </c>
@@ -23099,8 +24225,11 @@
       <c r="R373" s="8">
         <v>3.4326195578303702</v>
       </c>
-    </row>
-    <row r="374" spans="1:18">
+      <c r="S373" s="23">
+        <v>41.207917861108797</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19">
       <c r="A374" s="17">
         <v>16</v>
       </c>
@@ -23155,8 +24284,11 @@
       <c r="R374" s="8">
         <v>3.4645426458536899</v>
       </c>
-    </row>
-    <row r="375" spans="1:18">
+      <c r="S374" s="23">
+        <v>41.5911482095281</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19">
       <c r="A375" s="17">
         <v>16</v>
       </c>
@@ -23211,8 +24343,11 @@
       <c r="R375" s="8">
         <v>3.3977457234525601</v>
       </c>
-    </row>
-    <row r="376" spans="1:18">
+      <c r="S375" s="23">
+        <v>40.789264387185597</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19">
       <c r="A376" s="17">
         <v>16</v>
       </c>
@@ -23267,8 +24402,11 @@
       <c r="R376" s="8">
         <v>3.2813208562091298</v>
       </c>
-    </row>
-    <row r="377" spans="1:18">
+      <c r="S376" s="23">
+        <v>39.391606917276498</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19">
       <c r="A377" s="17">
         <v>16</v>
       </c>
@@ -23323,8 +24461,11 @@
       <c r="R377" s="8">
         <v>3.26659284922314</v>
       </c>
-    </row>
-    <row r="378" spans="1:18">
+      <c r="S377" s="23">
+        <v>39.214800110722003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19">
       <c r="A378" s="17">
         <v>16</v>
       </c>
@@ -23379,8 +24520,11 @@
       <c r="R378" s="8">
         <v>3.1246603827596902</v>
       </c>
-    </row>
-    <row r="379" spans="1:18">
+      <c r="S378" s="23">
+        <v>37.510928964702103</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19">
       <c r="A379" s="17">
         <v>16</v>
       </c>
@@ -23435,8 +24579,11 @@
       <c r="R379" s="8">
         <v>3.12724780590155</v>
       </c>
-    </row>
-    <row r="380" spans="1:18">
+      <c r="S379" s="23">
+        <v>37.541990467005398</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19">
       <c r="A380" s="17">
         <v>16</v>
       </c>
@@ -23491,8 +24638,11 @@
       <c r="R380" s="8">
         <v>3.2284122495128602</v>
       </c>
-    </row>
-    <row r="381" spans="1:18">
+      <c r="S380" s="23">
+        <v>38.7564495739839</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19">
       <c r="A381" s="17">
         <v>16</v>
       </c>
@@ -23547,8 +24697,11 @@
       <c r="R381" s="8">
         <v>3.34156114289312</v>
       </c>
-    </row>
-    <row r="382" spans="1:18">
+      <c r="S381" s="23">
+        <v>40.114779626568101</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19">
       <c r="A382" s="17">
         <v>16</v>
       </c>
@@ -23603,8 +24756,11 @@
       <c r="R382" s="8">
         <v>3.3267257909363002</v>
       </c>
-    </row>
-    <row r="383" spans="1:18">
+      <c r="S382" s="23">
+        <v>39.9366841649015</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19">
       <c r="A383" s="17">
         <v>16</v>
       </c>
@@ -23659,8 +24815,11 @@
       <c r="R383" s="8">
         <v>3.2444877759305202</v>
       </c>
-    </row>
-    <row r="384" spans="1:18">
+      <c r="S383" s="23">
+        <v>38.949433084399999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19">
       <c r="A384" s="17">
         <v>16</v>
       </c>
@@ -23715,8 +24874,11 @@
       <c r="R384" s="8">
         <v>3.2358118051069602</v>
       </c>
-    </row>
-    <row r="385" spans="1:18">
+      <c r="S384" s="23">
+        <v>38.8452797731928</v>
+      </c>
+    </row>
+    <row r="385" spans="1:19">
       <c r="A385" s="17">
         <v>16</v>
       </c>
@@ -23771,8 +24933,11 @@
       <c r="R385" s="8">
         <v>3.28645342083952</v>
       </c>
-    </row>
-    <row r="386" spans="1:18">
+      <c r="S385" s="23">
+        <v>39.453222339009898</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19">
       <c r="A386" s="17">
         <v>16</v>
       </c>
@@ -23827,8 +24992,11 @@
       <c r="R386" s="8">
         <v>3.3588254948996701</v>
       </c>
-    </row>
-    <row r="387" spans="1:18">
+      <c r="S386" s="23">
+        <v>40.3220347526971</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19">
       <c r="A387" s="17">
         <v>16</v>
       </c>
@@ -23883,8 +25051,11 @@
       <c r="R387" s="8">
         <v>3.29563131950886</v>
       </c>
-    </row>
-    <row r="388" spans="1:18">
+      <c r="S387" s="23">
+        <v>39.563401194584202</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19">
       <c r="A388" s="17">
         <v>16</v>
       </c>
@@ -23939,8 +25110,11 @@
       <c r="R388" s="8">
         <v>3.24833177386625</v>
       </c>
-    </row>
-    <row r="389" spans="1:18">
+      <c r="S388" s="23">
+        <v>38.995579518202199</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19">
       <c r="A389" s="17">
         <v>16</v>
       </c>
@@ -23995,8 +25169,11 @@
       <c r="R389" s="8">
         <v>3.1708877510957398</v>
       </c>
-    </row>
-    <row r="390" spans="1:18">
+      <c r="S389" s="23">
+        <v>38.065879364894897</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19">
       <c r="A390" s="17">
         <v>16</v>
       </c>
@@ -24051,8 +25228,11 @@
       <c r="R390" s="8">
         <v>3.2248060829900398</v>
       </c>
-    </row>
-    <row r="391" spans="1:18">
+      <c r="S390" s="23">
+        <v>38.713158259184198</v>
+      </c>
+    </row>
+    <row r="391" spans="1:19">
       <c r="A391" s="17">
         <v>16</v>
       </c>
@@ -24107,8 +25287,11 @@
       <c r="R391" s="8">
         <v>3.1743303978188502</v>
       </c>
-    </row>
-    <row r="392" spans="1:18">
+      <c r="S391" s="23">
+        <v>38.107207656889003</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19">
       <c r="A392" s="17">
         <v>16</v>
       </c>
@@ -24163,8 +25346,11 @@
       <c r="R392" s="8">
         <v>3.1703935160474002</v>
       </c>
-    </row>
-    <row r="393" spans="1:18">
+      <c r="S392" s="23">
+        <v>38.059946171037197</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19">
       <c r="A393" s="17">
         <v>16</v>
       </c>
@@ -24219,8 +25405,11 @@
       <c r="R393" s="8">
         <v>3.12274801958382</v>
       </c>
-    </row>
-    <row r="394" spans="1:18">
+      <c r="S393" s="23">
+        <v>37.487971423575303</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19">
       <c r="A394" s="17">
         <v>16</v>
       </c>
@@ -24275,8 +25464,11 @@
       <c r="R394" s="8">
         <v>3.1503830004066602</v>
       </c>
-    </row>
-    <row r="395" spans="1:18">
+      <c r="S394" s="23">
+        <v>37.819723894437701</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19">
       <c r="A395" s="17">
         <v>16</v>
       </c>
@@ -24331,8 +25523,11 @@
       <c r="R395" s="8">
         <v>3.0507289229027799</v>
       </c>
-    </row>
-    <row r="396" spans="1:18">
+      <c r="S395" s="23">
+        <v>36.623396433406697</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19">
       <c r="A396" s="17">
         <v>16</v>
       </c>
@@ -24387,8 +25582,11 @@
       <c r="R396" s="8">
         <v>3.0678629494446801</v>
       </c>
-    </row>
-    <row r="397" spans="1:18">
+      <c r="S396" s="23">
+        <v>36.829087028147399</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19">
       <c r="A397" s="17">
         <v>16</v>
       </c>
@@ -24443,8 +25641,11 @@
       <c r="R397" s="8">
         <v>3.20858145804034</v>
       </c>
-    </row>
-    <row r="398" spans="1:18">
+      <c r="S397" s="23">
+        <v>38.518384850424297</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19">
       <c r="A398" s="17">
         <v>16</v>
       </c>
@@ -24499,8 +25700,11 @@
       <c r="R398" s="8">
         <v>3.28544807105501</v>
       </c>
-    </row>
-    <row r="399" spans="1:18">
+      <c r="S398" s="23">
+        <v>39.441153313985701</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19">
       <c r="A399" s="17">
         <v>16</v>
       </c>
@@ -24555,8 +25759,11 @@
       <c r="R399" s="8">
         <v>3.3287788494285802</v>
       </c>
-    </row>
-    <row r="400" spans="1:18">
+      <c r="S399" s="23">
+        <v>39.9613307254332</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19">
       <c r="A400" s="17">
         <v>16</v>
       </c>
@@ -24611,8 +25818,11 @@
       <c r="R400" s="8">
         <v>3.30773523175794</v>
       </c>
-    </row>
-    <row r="401" spans="1:18">
+      <c r="S400" s="23">
+        <v>39.708706263600703</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19">
       <c r="A401" s="17">
         <v>16</v>
       </c>
@@ -24667,8 +25877,11 @@
       <c r="R401" s="8">
         <v>3.2972194413443501</v>
       </c>
-    </row>
-    <row r="402" spans="1:18">
+      <c r="S401" s="23">
+        <v>39.582466282645299</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19">
       <c r="A402" s="17">
         <v>16</v>
       </c>
@@ -24723,8 +25936,11 @@
       <c r="R402" s="8">
         <v>3.3847039320874401</v>
       </c>
-    </row>
-    <row r="403" spans="1:18">
+      <c r="S402" s="23">
+        <v>40.6327002651554</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19">
       <c r="A403" s="17">
         <v>16</v>
       </c>
@@ -24779,8 +25995,11 @@
       <c r="R403" s="8">
         <v>3.29073138114377</v>
       </c>
-    </row>
-    <row r="404" spans="1:18">
+      <c r="S403" s="23">
+        <v>39.504578405087301</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19">
       <c r="A404" s="17">
         <v>16</v>
       </c>
@@ -24835,8 +26054,11 @@
       <c r="R404" s="8">
         <v>3.3255588154524802</v>
       </c>
-    </row>
-    <row r="405" spans="1:18">
+      <c r="S404" s="23">
+        <v>39.922674855371902</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19">
       <c r="A405" s="17">
         <v>16</v>
       </c>
@@ -24891,8 +26113,11 @@
       <c r="R405" s="8">
         <v>3.2621148155558202</v>
       </c>
-    </row>
-    <row r="406" spans="1:18">
+      <c r="S405" s="23">
+        <v>39.161042203551197</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19">
       <c r="A406" s="17">
         <v>16</v>
       </c>
@@ -24947,8 +26172,11 @@
       <c r="R406" s="8">
         <v>3.2903870533300799</v>
       </c>
-    </row>
-    <row r="407" spans="1:18">
+      <c r="S406" s="23">
+        <v>39.500444817888102</v>
+      </c>
+    </row>
+    <row r="407" spans="1:19">
       <c r="A407" s="17">
         <v>16</v>
       </c>
@@ -25003,8 +26231,11 @@
       <c r="R407" s="8">
         <v>3.2329969243651799</v>
       </c>
-    </row>
-    <row r="408" spans="1:18">
+      <c r="S407" s="23">
+        <v>38.811487687457202</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19">
       <c r="A408" s="17">
         <v>16</v>
       </c>
@@ -25059,8 +26290,11 @@
       <c r="R408" s="8">
         <v>3.1788826041765601</v>
       </c>
-    </row>
-    <row r="409" spans="1:18">
+      <c r="S408" s="23">
+        <v>38.161855992515797</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19">
       <c r="A409" s="17">
         <v>16</v>
       </c>
@@ -25115,8 +26349,11 @@
       <c r="R409" s="8">
         <v>3.17326904409365</v>
       </c>
-    </row>
-    <row r="410" spans="1:18">
+      <c r="S409" s="23">
+        <v>38.094466315650102</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19">
       <c r="A410" s="17">
         <v>16</v>
       </c>
@@ -25171,8 +26408,11 @@
       <c r="R410" s="8">
         <v>3.1672407854851898</v>
       </c>
-    </row>
-    <row r="411" spans="1:18">
+      <c r="S410" s="23">
+        <v>38.022098265128399</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19">
       <c r="A411" s="17">
         <v>16</v>
       </c>
@@ -25227,8 +26467,11 @@
       <c r="R411" s="8">
         <v>3.14120337224738</v>
       </c>
-    </row>
-    <row r="412" spans="1:18">
+      <c r="S411" s="23">
+        <v>37.709524276679197</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19">
       <c r="A412" s="17">
         <v>16</v>
       </c>
@@ -25283,8 +26526,11 @@
       <c r="R412" s="8">
         <v>3.25441109774702</v>
       </c>
-    </row>
-    <row r="413" spans="1:18">
+      <c r="S412" s="23">
+        <v>39.068560597203103</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19">
       <c r="A413" s="17">
         <v>16</v>
       </c>
@@ -25339,8 +26585,11 @@
       <c r="R413" s="8">
         <v>3.31050264666001</v>
       </c>
-    </row>
-    <row r="414" spans="1:18">
+      <c r="S413" s="23">
+        <v>39.741928531332697</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19">
       <c r="A414" s="17">
         <v>16</v>
       </c>
@@ -25395,8 +26644,11 @@
       <c r="R414" s="8">
         <v>3.4363034585230201</v>
       </c>
-    </row>
-    <row r="415" spans="1:18">
+      <c r="S414" s="23">
+        <v>41.252142359219903</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19">
       <c r="A415" s="17">
         <v>16</v>
       </c>
@@ -25451,8 +26703,11 @@
       <c r="R415" s="8">
         <v>3.37474411034411</v>
       </c>
-    </row>
-    <row r="416" spans="1:18">
+      <c r="S415" s="23">
+        <v>40.5131345779605</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19">
       <c r="A416" s="17">
         <v>16</v>
       </c>
@@ -25507,8 +26762,11 @@
       <c r="R416" s="8">
         <v>3.34184490924443</v>
       </c>
-    </row>
-    <row r="417" spans="1:18">
+      <c r="S416" s="23">
+        <v>40.118186185407403</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19">
       <c r="A417" s="17">
         <v>16</v>
       </c>
@@ -25563,8 +26821,11 @@
       <c r="R417" s="8">
         <v>3.3808282178534199</v>
       </c>
-    </row>
-    <row r="418" spans="1:18">
+      <c r="S417" s="23">
+        <v>40.586173083474399</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19">
       <c r="A418" s="17">
         <v>16</v>
       </c>
@@ -25619,8 +26880,11 @@
       <c r="R418" s="8">
         <v>3.45971961574508</v>
       </c>
-    </row>
-    <row r="419" spans="1:18">
+      <c r="S418" s="23">
+        <v>41.5332486884163</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19">
       <c r="A419" s="17">
         <v>16</v>
       </c>
@@ -25675,8 +26939,11 @@
       <c r="R419" s="8">
         <v>3.52395982096039</v>
       </c>
-    </row>
-    <row r="420" spans="1:18">
+      <c r="S419" s="23">
+        <v>42.304439627375601</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19">
       <c r="A420" s="17">
         <v>16</v>
       </c>
@@ -25731,8 +26998,11 @@
       <c r="R420" s="8">
         <v>3.5009651493634002</v>
       </c>
-    </row>
-    <row r="421" spans="1:18" s="18" customFormat="1">
+      <c r="S420" s="23">
+        <v>42.028393149620697</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" s="18" customFormat="1">
       <c r="A421" s="18">
         <v>16</v>
       </c>
@@ -25787,8 +27057,11 @@
       <c r="R421" s="15">
         <v>3.4120507618604199</v>
       </c>
-    </row>
-    <row r="422" spans="1:18">
+      <c r="S421" s="23">
+        <v>40.960993539740997</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19">
       <c r="A422" s="17">
         <v>16</v>
       </c>
@@ -25843,8 +27116,11 @@
       <c r="R422" s="8">
         <v>3.4673774163381701</v>
       </c>
-    </row>
-    <row r="423" spans="1:18">
+      <c r="S422" s="23">
+        <v>41.625179067685202</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19">
       <c r="A423" s="17">
         <v>16</v>
       </c>
@@ -25899,8 +27175,11 @@
       <c r="R423" s="8">
         <v>3.3882143012503798</v>
       </c>
-    </row>
-    <row r="424" spans="1:18">
+      <c r="S423" s="23">
+        <v>40.6748415516252</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19">
       <c r="A424" s="17">
         <v>16</v>
       </c>
@@ -25955,8 +27234,11 @@
       <c r="R424" s="8">
         <v>3.4788446124974799</v>
       </c>
-    </row>
-    <row r="425" spans="1:18">
+      <c r="S424" s="23">
+        <v>41.762840486164201</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19">
       <c r="A425" s="17">
         <v>16</v>
       </c>
@@ -26011,8 +27293,11 @@
       <c r="R425" s="8">
         <v>3.3920607283906001</v>
       </c>
-    </row>
-    <row r="426" spans="1:18">
+      <c r="S425" s="23">
+        <v>40.721017147546199</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19">
       <c r="A426" s="17">
         <v>16</v>
       </c>
@@ -26067,8 +27352,11 @@
       <c r="R426" s="8">
         <v>3.25683703992379</v>
       </c>
-    </row>
-    <row r="427" spans="1:18">
+      <c r="S426" s="23">
+        <v>39.097683552506503</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19">
       <c r="A427" s="17">
         <v>16</v>
       </c>
@@ -26123,8 +27411,11 @@
       <c r="R427" s="8">
         <v>3.0849306081697101</v>
       </c>
-    </row>
-    <row r="428" spans="1:18">
+      <c r="S427" s="23">
+        <v>37.033980890392598</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19">
       <c r="A428" s="17">
         <v>16</v>
       </c>
@@ -26179,8 +27470,11 @@
       <c r="R428" s="8">
         <v>3.1790323290918501</v>
       </c>
-    </row>
-    <row r="429" spans="1:18">
+      <c r="S428" s="23">
+        <v>38.163653410466402</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19">
       <c r="A429" s="17">
         <v>16</v>
       </c>
@@ -26235,8 +27529,11 @@
       <c r="R429" s="8">
         <v>3.2799658061539398</v>
       </c>
-    </row>
-    <row r="430" spans="1:18">
+      <c r="S429" s="23">
+        <v>39.375339809771198</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19">
       <c r="A430" s="17">
         <v>16</v>
       </c>
@@ -26291,8 +27588,11 @@
       <c r="R430" s="8">
         <v>3.2901685163413998</v>
       </c>
-    </row>
-    <row r="431" spans="1:18">
+      <c r="S430" s="23">
+        <v>39.497821324626599</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19">
       <c r="A431" s="17">
         <v>16</v>
       </c>
@@ -26347,8 +27647,11 @@
       <c r="R431" s="8">
         <v>3.0313592196714301</v>
       </c>
-    </row>
-    <row r="432" spans="1:18">
+      <c r="S431" s="23">
+        <v>36.390866982850298</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19">
       <c r="A432" s="17">
         <v>16</v>
       </c>
@@ -26403,8 +27706,11 @@
       <c r="R432" s="8">
         <v>2.9423072939336801</v>
       </c>
-    </row>
-    <row r="433" spans="1:18">
+      <c r="S432" s="23">
+        <v>35.321816253705599</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19">
       <c r="A433" s="17">
         <v>16</v>
       </c>
@@ -26459,8 +27765,11 @@
       <c r="R433" s="8">
         <v>3.0535845194672602</v>
       </c>
-    </row>
-    <row r="434" spans="1:18">
+      <c r="S433" s="23">
+        <v>36.657677304528903</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19">
       <c r="A434" s="17">
         <v>16</v>
       </c>
@@ -26515,8 +27824,11 @@
       <c r="R434" s="8">
         <v>3.3476508078850999</v>
       </c>
-    </row>
-    <row r="435" spans="1:18">
+      <c r="S434" s="23">
+        <v>40.1878848485606</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19">
       <c r="A435" s="17">
         <v>16</v>
       </c>
@@ -26571,8 +27883,11 @@
       <c r="R435" s="8">
         <v>3.4741446822095599</v>
       </c>
-    </row>
-    <row r="436" spans="1:18">
+      <c r="S435" s="23">
+        <v>41.706418754016298</v>
+      </c>
+    </row>
+    <row r="436" spans="1:19">
       <c r="A436" s="17">
         <v>16</v>
       </c>
@@ -26627,8 +27942,11 @@
       <c r="R436" s="8">
         <v>3.4490623728941801</v>
       </c>
-    </row>
-    <row r="437" spans="1:18">
+      <c r="S436" s="23">
+        <v>41.405310598969798</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19">
       <c r="A437" s="17">
         <v>16</v>
       </c>
@@ -26683,8 +28001,11 @@
       <c r="R437" s="8">
         <v>3.39955602687948</v>
       </c>
-    </row>
-    <row r="438" spans="1:18">
+      <c r="S437" s="23">
+        <v>40.810996721242198</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19">
       <c r="A438" s="17">
         <v>16</v>
       </c>
@@ -26739,8 +28060,11 @@
       <c r="R438" s="8">
         <v>3.4265237833989199</v>
       </c>
-    </row>
-    <row r="439" spans="1:18">
+      <c r="S438" s="23">
+        <v>41.1347392965057</v>
+      </c>
+    </row>
+    <row r="439" spans="1:19">
       <c r="A439" s="17">
         <v>16</v>
       </c>
@@ -26795,8 +28119,11 @@
       <c r="R439" s="8">
         <v>3.3177622003981102</v>
       </c>
-    </row>
-    <row r="440" spans="1:18">
+      <c r="S439" s="23">
+        <v>39.829078035991699</v>
+      </c>
+    </row>
+    <row r="440" spans="1:19">
       <c r="A440" s="17">
         <v>16</v>
       </c>
@@ -26851,8 +28178,11 @@
       <c r="R440" s="8">
         <v>3.321423079343</v>
       </c>
-    </row>
-    <row r="441" spans="1:18">
+      <c r="S440" s="23">
+        <v>39.873026162580999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:19">
       <c r="A441" s="17">
         <v>16</v>
       </c>
@@ -26907,8 +28237,11 @@
       <c r="R441" s="8">
         <v>3.4502055858549801</v>
       </c>
-    </row>
-    <row r="442" spans="1:18">
+      <c r="S441" s="23">
+        <v>41.419034644117403</v>
+      </c>
+    </row>
+    <row r="442" spans="1:19">
       <c r="A442" s="17">
         <v>16</v>
       </c>
@@ -26963,8 +28296,11 @@
       <c r="R442" s="8">
         <v>3.60641333522483</v>
       </c>
-    </row>
-    <row r="443" spans="1:18">
+      <c r="S442" s="23">
+        <v>43.294277733791503</v>
+      </c>
+    </row>
+    <row r="443" spans="1:19">
       <c r="A443" s="17">
         <v>16</v>
       </c>
@@ -27019,8 +28355,11 @@
       <c r="R443" s="8">
         <v>3.6287682507933501</v>
       </c>
-    </row>
-    <row r="444" spans="1:18">
+      <c r="S443" s="23">
+        <v>43.562644067146998</v>
+      </c>
+    </row>
+    <row r="444" spans="1:19">
       <c r="A444" s="17">
         <v>16</v>
       </c>
@@ -27075,8 +28414,11 @@
       <c r="R444" s="8">
         <v>3.6208502173111898</v>
       </c>
-    </row>
-    <row r="445" spans="1:18">
+      <c r="S444" s="23">
+        <v>43.467589643591701</v>
+      </c>
+    </row>
+    <row r="445" spans="1:19">
       <c r="A445" s="17">
         <v>16</v>
       </c>
@@ -27131,8 +28473,11 @@
       <c r="R445" s="8">
         <v>3.6659657264335102</v>
       </c>
-    </row>
-    <row r="446" spans="1:18">
+      <c r="S445" s="23">
+        <v>44.009192394159697</v>
+      </c>
+    </row>
+    <row r="446" spans="1:19">
       <c r="A446" s="17">
         <v>16</v>
       </c>
@@ -27187,8 +28532,11 @@
       <c r="R446" s="8">
         <v>3.6584341401743399</v>
       </c>
-    </row>
-    <row r="447" spans="1:18">
+      <c r="S446" s="23">
+        <v>43.918777192969301</v>
+      </c>
+    </row>
+    <row r="447" spans="1:19">
       <c r="A447" s="17">
         <v>16</v>
       </c>
@@ -27243,8 +28591,11 @@
       <c r="R447" s="8">
         <v>3.6144943688531899</v>
       </c>
-    </row>
-    <row r="448" spans="1:18">
+      <c r="S447" s="23">
+        <v>43.391288941814999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:19">
       <c r="A448" s="17">
         <v>16</v>
       </c>
@@ -27299,8 +28650,11 @@
       <c r="R448" s="8">
         <v>3.5838257013934598</v>
       </c>
-    </row>
-    <row r="449" spans="1:18">
+      <c r="S448" s="23">
+        <v>43.023117663786998</v>
+      </c>
+    </row>
+    <row r="449" spans="1:19">
       <c r="A449" s="17">
         <v>16</v>
       </c>
@@ -27355,8 +28709,11 @@
       <c r="R449" s="8">
         <v>3.5741181332551801</v>
       </c>
-    </row>
-    <row r="450" spans="1:18">
+      <c r="S449" s="23">
+        <v>42.906580231154599</v>
+      </c>
+    </row>
+    <row r="450" spans="1:19">
       <c r="A450" s="17">
         <v>16</v>
       </c>
@@ -27411,8 +28768,11 @@
       <c r="R450" s="8">
         <v>3.4798849313262301</v>
       </c>
-    </row>
-    <row r="451" spans="1:18">
+      <c r="S450" s="23">
+        <v>41.775329307637897</v>
+      </c>
+    </row>
+    <row r="451" spans="1:19">
       <c r="A451" s="17">
         <v>16</v>
       </c>
@@ -27467,8 +28827,11 @@
       <c r="R451" s="8">
         <v>3.3945533874955101</v>
       </c>
-    </row>
-    <row r="452" spans="1:18">
+      <c r="S451" s="23">
+        <v>40.7509410263566</v>
+      </c>
+    </row>
+    <row r="452" spans="1:19">
       <c r="A452" s="17">
         <v>16</v>
       </c>
@@ -27523,8 +28886,11 @@
       <c r="R452" s="8">
         <v>3.3025175201926502</v>
       </c>
-    </row>
-    <row r="453" spans="1:18">
+      <c r="S452" s="23">
+        <v>39.646068669779702</v>
+      </c>
+    </row>
+    <row r="453" spans="1:19">
       <c r="A453" s="17">
         <v>16</v>
       </c>
@@ -27579,8 +28945,11 @@
       <c r="R453" s="8">
         <v>3.2853483728847199</v>
       </c>
-    </row>
-    <row r="454" spans="1:18">
+      <c r="S453" s="23">
+        <v>39.4399564571995</v>
+      </c>
+    </row>
+    <row r="454" spans="1:19">
       <c r="A454" s="17">
         <v>16</v>
       </c>
@@ -27635,8 +29004,11 @@
       <c r="R454" s="8">
         <v>3.39599471859494</v>
       </c>
-    </row>
-    <row r="455" spans="1:18">
+      <c r="S454" s="23">
+        <v>40.768243920707498</v>
+      </c>
+    </row>
+    <row r="455" spans="1:19">
       <c r="A455" s="17">
         <v>16</v>
       </c>
@@ -27691,8 +29063,11 @@
       <c r="R455" s="8">
         <v>3.4176274320171798</v>
       </c>
-    </row>
-    <row r="456" spans="1:18">
+      <c r="S455" s="23">
+        <v>41.0279403603503</v>
+      </c>
+    </row>
+    <row r="456" spans="1:19">
       <c r="A456" s="17">
         <v>16</v>
       </c>
@@ -27747,8 +29122,11 @@
       <c r="R456" s="8">
         <v>3.54125891534584</v>
       </c>
-    </row>
-    <row r="457" spans="1:18">
+      <c r="S456" s="23">
+        <v>42.512111828881601</v>
+      </c>
+    </row>
+    <row r="457" spans="1:19">
       <c r="A457" s="17">
         <v>16</v>
       </c>
@@ -27803,8 +29181,11 @@
       <c r="R457" s="8">
         <v>3.4270921032118502</v>
       </c>
-    </row>
-    <row r="458" spans="1:18">
+      <c r="S457" s="23">
+        <v>41.1415618632875</v>
+      </c>
+    </row>
+    <row r="458" spans="1:19">
       <c r="A458" s="17">
         <v>16</v>
       </c>
@@ -27859,8 +29240,11 @@
       <c r="R458" s="8">
         <v>3.4466233932386499</v>
       </c>
-    </row>
-    <row r="459" spans="1:18">
+      <c r="S458" s="23">
+        <v>41.376031131316402</v>
+      </c>
+    </row>
+    <row r="459" spans="1:19">
       <c r="A459" s="17">
         <v>16</v>
       </c>
@@ -27915,8 +29299,11 @@
       <c r="R459" s="8">
         <v>3.4677382948229498</v>
       </c>
-    </row>
-    <row r="460" spans="1:18">
+      <c r="S459" s="23">
+        <v>41.6295113424123</v>
+      </c>
+    </row>
+    <row r="460" spans="1:19">
       <c r="A460" s="17">
         <v>16</v>
       </c>
@@ -27971,8 +29358,11 @@
       <c r="R460" s="8">
         <v>3.4185374145155398</v>
       </c>
-    </row>
-    <row r="461" spans="1:18">
+      <c r="S460" s="23">
+        <v>41.038864519994497</v>
+      </c>
+    </row>
+    <row r="461" spans="1:19">
       <c r="A461" s="17">
         <v>16</v>
       </c>
@@ -28027,8 +29417,11 @@
       <c r="R461" s="8">
         <v>3.4519398281782898</v>
       </c>
-    </row>
-    <row r="462" spans="1:18">
+      <c r="S461" s="23">
+        <v>41.439853879691299</v>
+      </c>
+    </row>
+    <row r="462" spans="1:19">
       <c r="A462" s="17">
         <v>16</v>
       </c>
@@ -28083,8 +29476,11 @@
       <c r="R462" s="8">
         <v>3.27581591999868</v>
       </c>
-    </row>
-    <row r="463" spans="1:18">
+      <c r="S462" s="23">
+        <v>39.325521248483597</v>
+      </c>
+    </row>
+    <row r="463" spans="1:19">
       <c r="A463" s="17">
         <v>16</v>
       </c>
@@ -28139,8 +29535,11 @@
       <c r="R463" s="8">
         <v>3.27680114838846</v>
       </c>
-    </row>
-    <row r="464" spans="1:18">
+      <c r="S463" s="23">
+        <v>39.337348720149599</v>
+      </c>
+    </row>
+    <row r="464" spans="1:19">
       <c r="A464" s="17">
         <v>16</v>
       </c>
@@ -28195,8 +29594,11 @@
       <c r="R464" s="8">
         <v>3.1970537310003202</v>
       </c>
-    </row>
-    <row r="465" spans="1:18">
+      <c r="S464" s="23">
+        <v>38.379996770712097</v>
+      </c>
+    </row>
+    <row r="465" spans="1:19">
       <c r="A465" s="17">
         <v>16</v>
       </c>
@@ -28251,8 +29653,11 @@
       <c r="R465" s="8">
         <v>3.2700886564593099</v>
       </c>
-    </row>
-    <row r="466" spans="1:18">
+      <c r="S465" s="23">
+        <v>39.256766584145304</v>
+      </c>
+    </row>
+    <row r="466" spans="1:19">
       <c r="A466" s="17">
         <v>16</v>
       </c>
@@ -28307,8 +29712,11 @@
       <c r="R466" s="8">
         <v>3.5643691863543601</v>
       </c>
-    </row>
-    <row r="467" spans="1:18">
+      <c r="S466" s="23">
+        <v>42.789546054674197</v>
+      </c>
+    </row>
+    <row r="467" spans="1:19">
       <c r="A467" s="17">
         <v>16</v>
       </c>
@@ -28363,8 +29771,11 @@
       <c r="R467" s="8">
         <v>3.7276276864804601</v>
       </c>
-    </row>
-    <row r="468" spans="1:18">
+      <c r="S467" s="23">
+        <v>44.749432010569798</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19">
       <c r="A468" s="17">
         <v>16</v>
       </c>
@@ -28419,8 +29830,11 @@
       <c r="R468" s="8">
         <v>3.8088899037242001</v>
       </c>
-    </row>
-    <row r="469" spans="1:18">
+      <c r="S468" s="23">
+        <v>45.724968832223297</v>
+      </c>
+    </row>
+    <row r="469" spans="1:19">
       <c r="A469" s="17">
         <v>16</v>
       </c>
@@ -28475,8 +29889,11 @@
       <c r="R469" s="8">
         <v>3.68530851483608</v>
       </c>
-    </row>
-    <row r="470" spans="1:18">
+      <c r="S469" s="23">
+        <v>44.241398737527902</v>
+      </c>
+    </row>
+    <row r="470" spans="1:19">
       <c r="A470" s="17">
         <v>16</v>
       </c>
@@ -28531,8 +29948,11 @@
       <c r="R470" s="8">
         <v>3.5379181626584399</v>
       </c>
-    </row>
-    <row r="471" spans="1:18">
+      <c r="S470" s="23">
+        <v>42.4720067546031</v>
+      </c>
+    </row>
+    <row r="471" spans="1:19">
       <c r="A471" s="17">
         <v>16</v>
       </c>
@@ -28587,8 +30007,11 @@
       <c r="R471" s="8">
         <v>3.5958325620448401</v>
       </c>
-    </row>
-    <row r="472" spans="1:18">
+      <c r="S471" s="23">
+        <v>43.167257647597097</v>
+      </c>
+    </row>
+    <row r="472" spans="1:19">
       <c r="A472" s="17">
         <v>16</v>
       </c>
@@ -28643,8 +30066,11 @@
       <c r="R472" s="8">
         <v>3.6951153764192202</v>
       </c>
-    </row>
-    <row r="473" spans="1:18">
+      <c r="S472" s="23">
+        <v>44.359128168298</v>
+      </c>
+    </row>
+    <row r="473" spans="1:19">
       <c r="A473" s="17">
         <v>16</v>
       </c>
@@ -28699,8 +30125,11 @@
       <c r="R473" s="8">
         <v>3.8648328458401702</v>
       </c>
-    </row>
-    <row r="474" spans="1:18">
+      <c r="S473" s="23">
+        <v>46.3965527711905</v>
+      </c>
+    </row>
+    <row r="474" spans="1:19">
       <c r="A474" s="17">
         <v>16</v>
       </c>
@@ -28755,8 +30184,11 @@
       <c r="R474" s="8">
         <v>3.64793257240024</v>
       </c>
-    </row>
-    <row r="475" spans="1:18">
+      <c r="S474" s="23">
+        <v>43.792707951983601</v>
+      </c>
+    </row>
+    <row r="475" spans="1:19">
       <c r="A475" s="17">
         <v>16</v>
       </c>
@@ -28811,8 +30243,11 @@
       <c r="R475" s="8">
         <v>3.4989550832708201</v>
       </c>
-    </row>
-    <row r="476" spans="1:18" s="18" customFormat="1">
+      <c r="S475" s="23">
+        <v>42.004262704331502</v>
+      </c>
+    </row>
+    <row r="476" spans="1:19" s="18" customFormat="1">
       <c r="A476" s="18">
         <v>16</v>
       </c>
@@ -28867,8 +30302,11 @@
       <c r="R476" s="15">
         <v>3.47218088152189</v>
       </c>
-    </row>
-    <row r="477" spans="1:18">
+      <c r="S476" s="23">
+        <v>41.682843715748902</v>
+      </c>
+    </row>
+    <row r="477" spans="1:19">
       <c r="A477" s="17">
         <v>16</v>
       </c>
@@ -28923,8 +30361,11 @@
       <c r="R477" s="8">
         <v>3.58708406652628</v>
       </c>
-    </row>
-    <row r="478" spans="1:18">
+      <c r="S477" s="23">
+        <v>43.062233691792102</v>
+      </c>
+    </row>
+    <row r="478" spans="1:19">
       <c r="A478" s="17">
         <v>16</v>
       </c>
@@ -28979,8 +30420,11 @@
       <c r="R478" s="8">
         <v>3.72174909398468</v>
       </c>
-    </row>
-    <row r="479" spans="1:18">
+      <c r="S478" s="23">
+        <v>44.678860672085001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:19">
       <c r="A479" s="17">
         <v>16</v>
       </c>
@@ -29035,8 +30479,11 @@
       <c r="R479" s="8">
         <v>3.6012780766965098</v>
       </c>
-    </row>
-    <row r="480" spans="1:18">
+      <c r="S479" s="23">
+        <v>43.232629972346999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:19">
       <c r="A480" s="17">
         <v>16</v>
       </c>
@@ -29091,8 +30538,11 @@
       <c r="R480" s="8">
         <v>3.5262913522024601</v>
       </c>
-    </row>
-    <row r="481" spans="1:18">
+      <c r="S480" s="23">
+        <v>42.332429198108798</v>
+      </c>
+    </row>
+    <row r="481" spans="1:19">
       <c r="A481" s="17">
         <v>16</v>
       </c>
@@ -29147,8 +30597,11 @@
       <c r="R481" s="8">
         <v>3.3210987875166</v>
       </c>
-    </row>
-    <row r="482" spans="1:18">
+      <c r="S481" s="23">
+        <v>39.869133103440603</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19">
       <c r="A482" s="17">
         <v>16</v>
       </c>
@@ -29203,8 +30656,11 @@
       <c r="R482" s="8">
         <v>3.3462176301583502</v>
       </c>
-    </row>
-    <row r="483" spans="1:18">
+      <c r="S482" s="23">
+        <v>40.170679833833802</v>
+      </c>
+    </row>
+    <row r="483" spans="1:19">
       <c r="A483" s="17">
         <v>16</v>
       </c>
@@ -29259,8 +30715,11 @@
       <c r="R483" s="8">
         <v>3.3616191543069802</v>
       </c>
-    </row>
-    <row r="484" spans="1:18">
+      <c r="S483" s="23">
+        <v>40.355572080515898</v>
+      </c>
+    </row>
+    <row r="484" spans="1:19">
       <c r="A484" s="17">
         <v>16</v>
       </c>
@@ -29315,8 +30774,11 @@
       <c r="R484" s="8">
         <v>3.5470026408072499</v>
       </c>
-    </row>
-    <row r="485" spans="1:18">
+      <c r="S484" s="23">
+        <v>42.581064115333099</v>
+      </c>
+    </row>
+    <row r="485" spans="1:19">
       <c r="A485" s="17">
         <v>16</v>
       </c>
@@ -29371,8 +30833,11 @@
       <c r="R485" s="8">
         <v>3.5699535519183598</v>
       </c>
-    </row>
-    <row r="486" spans="1:18">
+      <c r="S485" s="23">
+        <v>42.856585257123101</v>
+      </c>
+    </row>
+    <row r="486" spans="1:19">
       <c r="A486" s="17">
         <v>16</v>
       </c>
@@ -29427,8 +30892,11 @@
       <c r="R486" s="8">
         <v>3.5800559288796898</v>
       </c>
-    </row>
-    <row r="487" spans="1:18">
+      <c r="S486" s="23">
+        <v>42.977862291472803</v>
+      </c>
+    </row>
+    <row r="487" spans="1:19">
       <c r="A487" s="17">
         <v>16</v>
       </c>
@@ -29483,8 +30951,11 @@
       <c r="R487" s="8">
         <v>3.58893284129738</v>
       </c>
-    </row>
-    <row r="488" spans="1:18">
+      <c r="S487" s="23">
+        <v>43.084427866715302</v>
+      </c>
+    </row>
+    <row r="488" spans="1:19">
       <c r="A488" s="17">
         <v>16</v>
       </c>
@@ -29539,8 +31010,11 @@
       <c r="R488" s="8">
         <v>3.5749723854775302</v>
       </c>
-    </row>
-    <row r="489" spans="1:18">
+      <c r="S488" s="23">
+        <v>42.916835359874298</v>
+      </c>
+    </row>
+    <row r="489" spans="1:19">
       <c r="A489" s="17">
         <v>16</v>
       </c>
@@ -29595,8 +31069,11 @@
       <c r="R489" s="8">
         <v>3.7034526073701901</v>
       </c>
-    </row>
-    <row r="490" spans="1:18">
+      <c r="S489" s="23">
+        <v>44.459214974432001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:19">
       <c r="A490" s="17">
         <v>16</v>
       </c>
@@ -29651,8 +31128,11 @@
       <c r="R490" s="8">
         <v>3.6371628516516901</v>
       </c>
-    </row>
-    <row r="491" spans="1:18">
+      <c r="S490" s="23">
+        <v>43.663419587655298</v>
+      </c>
+    </row>
+    <row r="491" spans="1:19">
       <c r="A491" s="17">
         <v>16</v>
       </c>
@@ -29707,8 +31187,11 @@
       <c r="R491" s="8">
         <v>3.6175644474644999</v>
       </c>
-    </row>
-    <row r="492" spans="1:18">
+      <c r="S491" s="23">
+        <v>43.428144627424899</v>
+      </c>
+    </row>
+    <row r="492" spans="1:19">
       <c r="A492" s="17">
         <v>16</v>
       </c>
@@ -29763,8 +31246,11 @@
       <c r="R492" s="8">
         <v>3.4853860955710698</v>
       </c>
-    </row>
-    <row r="493" spans="1:18">
+      <c r="S492" s="23">
+        <v>41.841369694730702</v>
+      </c>
+    </row>
+    <row r="493" spans="1:19">
       <c r="A493" s="17">
         <v>16</v>
       </c>
@@ -29819,8 +31305,11 @@
       <c r="R493" s="8">
         <v>3.4818404688783202</v>
       </c>
-    </row>
-    <row r="494" spans="1:18">
+      <c r="S493" s="23">
+        <v>41.7988051485993</v>
+      </c>
+    </row>
+    <row r="494" spans="1:19">
       <c r="A494" s="17">
         <v>16</v>
       </c>
@@ -29875,8 +31364,11 @@
       <c r="R494" s="8">
         <v>3.54386716483693</v>
       </c>
-    </row>
-    <row r="495" spans="1:18">
+      <c r="S494" s="23">
+        <v>42.543423347382102</v>
+      </c>
+    </row>
+    <row r="495" spans="1:19">
       <c r="A495" s="17">
         <v>16</v>
       </c>
@@ -29931,8 +31423,11 @@
       <c r="R495" s="8">
         <v>3.5801214512515398</v>
       </c>
-    </row>
-    <row r="496" spans="1:18">
+      <c r="S495" s="23">
+        <v>42.9786488745684</v>
+      </c>
+    </row>
+    <row r="496" spans="1:19">
       <c r="A496" s="17">
         <v>16</v>
       </c>
@@ -29987,8 +31482,11 @@
       <c r="R496" s="8">
         <v>3.52794887298796</v>
       </c>
-    </row>
-    <row r="497" spans="1:18">
+      <c r="S496" s="23">
+        <v>42.352327406818297</v>
+      </c>
+    </row>
+    <row r="497" spans="1:19">
       <c r="A497" s="17">
         <v>16</v>
       </c>
@@ -30043,8 +31541,11 @@
       <c r="R497" s="8">
         <v>3.5371402398456699</v>
       </c>
-    </row>
-    <row r="498" spans="1:18">
+      <c r="S497" s="23">
+        <v>42.462667945326203</v>
+      </c>
+    </row>
+    <row r="498" spans="1:19">
       <c r="A498" s="17">
         <v>16</v>
       </c>
@@ -30099,8 +31600,11 @@
       <c r="R498" s="8">
         <v>3.4789544940554098</v>
       </c>
-    </row>
-    <row r="499" spans="1:18">
+      <c r="S498" s="23">
+        <v>41.764159592501898</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19">
       <c r="A499" s="17">
         <v>16</v>
       </c>
@@ -30155,8 +31659,11 @@
       <c r="R499" s="8">
         <v>3.5661802220997099</v>
       </c>
-    </row>
-    <row r="500" spans="1:18">
+      <c r="S499" s="23">
+        <v>42.811287180068497</v>
+      </c>
+    </row>
+    <row r="500" spans="1:19">
       <c r="A500" s="17">
         <v>16</v>
       </c>
@@ -30211,8 +31718,11 @@
       <c r="R500" s="8">
         <v>3.5921959255446101</v>
       </c>
-    </row>
-    <row r="501" spans="1:18">
+      <c r="S500" s="23">
+        <v>43.123600546753998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:19">
       <c r="A501" s="17">
         <v>16</v>
       </c>
@@ -30267,8 +31777,11 @@
       <c r="R501" s="8">
         <v>3.6230261286633398</v>
       </c>
-    </row>
-    <row r="502" spans="1:18">
+      <c r="S501" s="23">
+        <v>43.493711028371401</v>
+      </c>
+    </row>
+    <row r="502" spans="1:19">
       <c r="A502" s="17">
         <v>16</v>
       </c>
@@ -30323,8 +31836,11 @@
       <c r="R502" s="8">
         <v>3.6184840967201599</v>
       </c>
-    </row>
-    <row r="503" spans="1:18">
+      <c r="S502" s="23">
+        <v>43.439184834575798</v>
+      </c>
+    </row>
+    <row r="503" spans="1:19">
       <c r="A503" s="17">
         <v>16</v>
       </c>
@@ -30379,8 +31895,11 @@
       <c r="R503" s="8">
         <v>3.52444654520166</v>
       </c>
-    </row>
-    <row r="504" spans="1:18">
+      <c r="S503" s="23">
+        <v>42.310282655482098</v>
+      </c>
+    </row>
+    <row r="504" spans="1:19">
       <c r="A504" s="17">
         <v>16</v>
       </c>
@@ -30435,8 +31954,11 @@
       <c r="R504" s="8">
         <v>3.50788803604665</v>
       </c>
-    </row>
-    <row r="505" spans="1:18">
+      <c r="S504" s="23">
+        <v>42.111501032973003</v>
+      </c>
+    </row>
+    <row r="505" spans="1:19">
       <c r="A505" s="17">
         <v>16</v>
       </c>
@@ -30491,8 +32013,11 @@
       <c r="R505" s="8">
         <v>3.3929351131571099</v>
       </c>
-    </row>
-    <row r="506" spans="1:18">
+      <c r="S505" s="23">
+        <v>40.731513963470697</v>
+      </c>
+    </row>
+    <row r="506" spans="1:19">
       <c r="A506" s="17">
         <v>16</v>
       </c>
@@ -30547,8 +32072,11 @@
       <c r="R506" s="8">
         <v>3.5685730835842899</v>
       </c>
-    </row>
-    <row r="507" spans="1:18">
+      <c r="S506" s="23">
+        <v>42.840013008214797</v>
+      </c>
+    </row>
+    <row r="507" spans="1:19">
       <c r="A507" s="17">
         <v>16</v>
       </c>
@@ -30603,8 +32131,11 @@
       <c r="R507" s="8">
         <v>3.4050038498445101</v>
       </c>
-    </row>
-    <row r="508" spans="1:18">
+      <c r="S507" s="23">
+        <v>40.876396756836797</v>
+      </c>
+    </row>
+    <row r="508" spans="1:19">
       <c r="A508" s="17">
         <v>16</v>
       </c>
@@ -30659,8 +32190,11 @@
       <c r="R508" s="8">
         <v>3.5262671494748599</v>
       </c>
-    </row>
-    <row r="509" spans="1:18">
+      <c r="S508" s="23">
+        <v>42.332138649157997</v>
+      </c>
+    </row>
+    <row r="509" spans="1:19">
       <c r="A509" s="17">
         <v>16</v>
       </c>
@@ -30715,8 +32249,11 @@
       <c r="R509" s="8">
         <v>3.7278320229136299</v>
       </c>
-    </row>
-    <row r="510" spans="1:18">
+      <c r="S509" s="23">
+        <v>44.751885028975202</v>
+      </c>
+    </row>
+    <row r="510" spans="1:19">
       <c r="A510" s="17">
         <v>16</v>
       </c>
@@ -30771,8 +32308,11 @@
       <c r="R510" s="8">
         <v>3.9632489700447802</v>
       </c>
-    </row>
-    <row r="511" spans="1:18">
+      <c r="S510" s="23">
+        <v>47.578018848076603</v>
+      </c>
+    </row>
+    <row r="511" spans="1:19">
       <c r="A511" s="17">
         <v>16</v>
       </c>
@@ -30827,8 +32367,11 @@
       <c r="R511" s="8">
         <v>3.91290641095472</v>
       </c>
-    </row>
-    <row r="512" spans="1:18">
+      <c r="S511" s="23">
+        <v>46.973666398015901</v>
+      </c>
+    </row>
+    <row r="512" spans="1:19">
       <c r="A512" s="17">
         <v>16</v>
       </c>
@@ -30883,8 +32426,11 @@
       <c r="R512" s="8">
         <v>3.6914017596064599</v>
       </c>
-    </row>
-    <row r="513" spans="1:18">
+      <c r="S512" s="23">
+        <v>44.314546934051101</v>
+      </c>
+    </row>
+    <row r="513" spans="1:19">
       <c r="A513" s="17">
         <v>16</v>
       </c>
@@ -30939,8 +32485,11 @@
       <c r="R513" s="8">
         <v>3.6080943607012999</v>
       </c>
-    </row>
-    <row r="514" spans="1:18">
+      <c r="S513" s="23">
+        <v>43.314458111660301</v>
+      </c>
+    </row>
+    <row r="514" spans="1:19">
       <c r="A514" s="17">
         <v>16</v>
       </c>
@@ -30995,8 +32544,11 @@
       <c r="R514" s="8">
         <v>3.6449974969492298</v>
       </c>
-    </row>
-    <row r="515" spans="1:18">
+      <c r="S514" s="23">
+        <v>43.757472952571703</v>
+      </c>
+    </row>
+    <row r="515" spans="1:19">
       <c r="A515" s="17">
         <v>16</v>
       </c>
@@ -31051,8 +32603,11 @@
       <c r="R515" s="8">
         <v>3.5751890214328901</v>
       </c>
-    </row>
-    <row r="516" spans="1:18">
+      <c r="S515" s="23">
+        <v>42.919436031607297</v>
+      </c>
+    </row>
+    <row r="516" spans="1:19">
       <c r="A516" s="17">
         <v>16</v>
       </c>
@@ -31107,8 +32662,11 @@
       <c r="R516" s="8">
         <v>3.68825322749414</v>
       </c>
-    </row>
-    <row r="517" spans="1:18">
+      <c r="S516" s="23">
+        <v>44.276749429701603</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19">
       <c r="A517" s="17">
         <v>16</v>
       </c>
@@ -31163,8 +32721,11 @@
       <c r="R517" s="8">
         <v>3.7326132304542199</v>
       </c>
-    </row>
-    <row r="518" spans="1:18">
+      <c r="S517" s="23">
+        <v>44.809282478442</v>
+      </c>
+    </row>
+    <row r="518" spans="1:19">
       <c r="A518" s="17">
         <v>16</v>
       </c>
@@ -31219,8 +32780,11 @@
       <c r="R518" s="8">
         <v>3.7277278268578899</v>
       </c>
-    </row>
-    <row r="519" spans="1:18">
+      <c r="S518" s="23">
+        <v>44.750634175965097</v>
+      </c>
+    </row>
+    <row r="519" spans="1:19">
       <c r="A519" s="17">
         <v>16</v>
       </c>
@@ -31275,8 +32839,11 @@
       <c r="R519" s="8">
         <v>3.7526319268733799</v>
       </c>
-    </row>
-    <row r="520" spans="1:18">
+      <c r="S519" s="23">
+        <v>45.049602963666104</v>
+      </c>
+    </row>
+    <row r="520" spans="1:19">
       <c r="A520" s="17">
         <v>16</v>
       </c>
@@ -31331,8 +32898,11 @@
       <c r="R520" s="8">
         <v>3.6388943803670601</v>
       </c>
-    </row>
-    <row r="521" spans="1:18">
+      <c r="S520" s="23">
+        <v>43.6842062469035</v>
+      </c>
+    </row>
+    <row r="521" spans="1:19">
       <c r="A521" s="17">
         <v>16</v>
       </c>
@@ -31387,8 +32957,11 @@
       <c r="R521" s="8">
         <v>3.6637766067598201</v>
       </c>
-    </row>
-    <row r="522" spans="1:18">
+      <c r="S521" s="23">
+        <v>43.9829124460963</v>
+      </c>
+    </row>
+    <row r="522" spans="1:19">
       <c r="A522" s="17">
         <v>16</v>
       </c>
@@ -31443,8 +33016,11 @@
       <c r="R522" s="8">
         <v>3.7211769790040599</v>
       </c>
-    </row>
-    <row r="523" spans="1:18">
+      <c r="S522" s="23">
+        <v>44.6719925450668</v>
+      </c>
+    </row>
+    <row r="523" spans="1:19">
       <c r="A523" s="17">
         <v>16</v>
       </c>
@@ -31499,8 +33075,11 @@
       <c r="R523" s="8">
         <v>3.6568370761726099</v>
       </c>
-    </row>
-    <row r="524" spans="1:18">
+      <c r="S523" s="23">
+        <v>43.899604755973698</v>
+      </c>
+    </row>
+    <row r="524" spans="1:19">
       <c r="A524" s="17">
         <v>16</v>
       </c>
@@ -31555,8 +33134,11 @@
       <c r="R524" s="8">
         <v>3.7279643810926602</v>
       </c>
-    </row>
-    <row r="525" spans="1:18">
+      <c r="S524" s="23">
+        <v>44.753473962697001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19">
       <c r="A525" s="17">
         <v>16</v>
       </c>
@@ -31611,8 +33193,11 @@
       <c r="R525" s="8">
         <v>3.49548793053639</v>
       </c>
-    </row>
-    <row r="526" spans="1:18">
+      <c r="S525" s="23">
+        <v>41.9626402225257</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19">
       <c r="A526" s="17">
         <v>16</v>
       </c>
@@ -31667,8 +33252,11 @@
       <c r="R526" s="8">
         <v>3.2954410101563201</v>
       </c>
-    </row>
-    <row r="527" spans="1:18">
+      <c r="S526" s="23">
+        <v>39.561116568503202</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19">
       <c r="A527" s="17">
         <v>16</v>
       </c>
@@ -31723,8 +33311,11 @@
       <c r="R527" s="8">
         <v>3.5656229418799699</v>
       </c>
-    </row>
-    <row r="528" spans="1:18">
+      <c r="S527" s="23">
+        <v>42.804597141416302</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19">
       <c r="A528" s="17">
         <v>16</v>
       </c>
@@ -31779,8 +33370,11 @@
       <c r="R528" s="8">
         <v>3.9009494410986898</v>
       </c>
-    </row>
-    <row r="529" spans="1:18">
+      <c r="S528" s="23">
+        <v>46.830125343321697</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19">
       <c r="A529" s="17">
         <v>16</v>
       </c>
@@ -31835,8 +33429,11 @@
       <c r="R529" s="8">
         <v>4.2824810252902097</v>
       </c>
-    </row>
-    <row r="530" spans="1:18">
+      <c r="S529" s="23">
+        <v>51.410336438057698</v>
+      </c>
+    </row>
+    <row r="530" spans="1:19">
       <c r="A530" s="17">
         <v>16</v>
       </c>
@@ -31891,8 +33488,11 @@
       <c r="R530" s="8">
         <v>3.9366032961716599</v>
       </c>
-    </row>
-    <row r="531" spans="1:18">
+      <c r="S530" s="23">
+        <v>47.258142811184399</v>
+      </c>
+    </row>
+    <row r="531" spans="1:19">
       <c r="A531" s="17">
         <v>16</v>
       </c>
@@ -31947,8 +33547,11 @@
       <c r="R531" s="8">
         <v>3.6165300590715299</v>
       </c>
-    </row>
-    <row r="532" spans="1:18">
+      <c r="S531" s="23">
+        <v>43.415726999658197</v>
+      </c>
+    </row>
+    <row r="532" spans="1:19">
       <c r="A532" s="17">
         <v>16</v>
       </c>
@@ -32003,8 +33606,11 @@
       <c r="R532" s="8">
         <v>3.6403239086133801</v>
       </c>
-    </row>
-    <row r="533" spans="1:18" s="18" customFormat="1">
+      <c r="S532" s="23">
+        <v>43.701367450340697</v>
+      </c>
+    </row>
+    <row r="533" spans="1:19" s="18" customFormat="1">
       <c r="A533" s="18">
         <v>16</v>
       </c>
@@ -32059,8 +33665,11 @@
       <c r="R533" s="15">
         <v>3.5791366944159302</v>
       </c>
-    </row>
-    <row r="534" spans="1:18">
+      <c r="S533" s="23">
+        <v>42.966827063816702</v>
+      </c>
+    </row>
+    <row r="534" spans="1:19">
       <c r="B534" s="7"/>
       <c r="L534" s="6"/>
       <c r="M534" s="20"/>
@@ -32069,8 +33678,9 @@
       <c r="P534" s="4"/>
       <c r="Q534" s="5"/>
       <c r="R534" s="8"/>
-    </row>
-    <row r="535" spans="1:18">
+      <c r="S534" s="23"/>
+    </row>
+    <row r="535" spans="1:19">
       <c r="B535" s="7"/>
       <c r="L535" s="6"/>
       <c r="M535" s="20"/>
@@ -32079,8 +33689,9 @@
       <c r="P535" s="4"/>
       <c r="Q535" s="5"/>
       <c r="R535" s="8"/>
-    </row>
-    <row r="536" spans="1:18">
+      <c r="S535" s="23"/>
+    </row>
+    <row r="536" spans="1:19">
       <c r="B536" s="7"/>
       <c r="L536" s="6"/>
       <c r="M536" s="20"/>
@@ -32089,8 +33700,9 @@
       <c r="P536" s="4"/>
       <c r="Q536" s="5"/>
       <c r="R536" s="8"/>
-    </row>
-    <row r="537" spans="1:18">
+      <c r="S536" s="23"/>
+    </row>
+    <row r="537" spans="1:19">
       <c r="B537" s="7"/>
       <c r="L537" s="6"/>
       <c r="M537" s="20"/>
@@ -32099,8 +33711,9 @@
       <c r="P537" s="4"/>
       <c r="Q537" s="5"/>
       <c r="R537" s="8"/>
-    </row>
-    <row r="538" spans="1:18">
+      <c r="S537" s="23"/>
+    </row>
+    <row r="538" spans="1:19">
       <c r="B538" s="7"/>
       <c r="L538" s="6"/>
       <c r="M538" s="20"/>
@@ -32109,6 +33722,7 @@
       <c r="P538" s="4"/>
       <c r="Q538" s="5"/>
       <c r="R538" s="8"/>
+      <c r="S538" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
